--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.018231908271261</v>
       </c>
       <c r="E2">
-        <v>0.9824530820691737</v>
+        <v>0.9824530820691734</v>
       </c>
       <c r="F2">
-        <v>1.011029866590673</v>
+        <v>1.011029866590674</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.022796428867557</v>
       </c>
       <c r="K2">
-        <v>1.029442955231569</v>
+        <v>1.02944295523157</v>
       </c>
       <c r="L2">
-        <v>0.9941624098326149</v>
+        <v>0.9941624098326147</v>
       </c>
       <c r="M2">
-        <v>1.022337647143552</v>
+        <v>1.022337647143553</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,19 +462,19 @@
         <v>1.008210680926495</v>
       </c>
       <c r="D3">
-        <v>1.023966770876021</v>
+        <v>1.02396677087602</v>
       </c>
       <c r="E3">
-        <v>0.9880602996128854</v>
+        <v>0.9880602996128852</v>
       </c>
       <c r="F3">
-        <v>1.017767383816829</v>
+        <v>1.017767383816828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048308606321089</v>
+        <v>1.048308606321088</v>
       </c>
       <c r="J3">
         <v>1.028479989855676</v>
@@ -483,7 +483,7 @@
         <v>1.034301908070475</v>
       </c>
       <c r="L3">
-        <v>0.9988482655791296</v>
+        <v>0.9988482655791294</v>
       </c>
       <c r="M3">
         <v>1.02817786497852</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012959262960673</v>
+        <v>1.012959262960674</v>
       </c>
       <c r="D4">
-        <v>1.027563648918649</v>
+        <v>1.02756364891865</v>
       </c>
       <c r="E4">
         <v>0.9915943232162214</v>
       </c>
       <c r="F4">
-        <v>1.022001512577143</v>
+        <v>1.022001512577144</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050054041885523</v>
+        <v>1.050054041885524</v>
       </c>
       <c r="J4">
-        <v>1.032037179952939</v>
+        <v>1.03203717995294</v>
       </c>
       <c r="K4">
-        <v>1.037340408453103</v>
+        <v>1.037340408453104</v>
       </c>
       <c r="L4">
         <v>1.001795267320814</v>
       </c>
       <c r="M4">
-        <v>1.031841457048199</v>
+        <v>1.0318414570482</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014920887685489</v>
+        <v>1.014920887685488</v>
       </c>
       <c r="D5">
         <v>1.02904994335885</v>
       </c>
       <c r="E5">
-        <v>0.9930586515148082</v>
+        <v>0.9930586515148074</v>
       </c>
       <c r="F5">
-        <v>1.023753143709655</v>
+        <v>1.023753143709654</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050771629824797</v>
+        <v>1.050771629824796</v>
       </c>
       <c r="J5">
         <v>1.033505320244376</v>
       </c>
       <c r="K5">
-        <v>1.038593823668303</v>
+        <v>1.038593823668302</v>
       </c>
       <c r="L5">
         <v>1.003014857069834</v>
       </c>
       <c r="M5">
-        <v>1.033355466975082</v>
+        <v>1.03335546697508</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015248276963695</v>
+        <v>1.015248276963696</v>
       </c>
       <c r="D6">
-        <v>1.029298023750334</v>
+        <v>1.029298023750335</v>
       </c>
       <c r="E6">
-        <v>0.993303297852594</v>
+        <v>0.9933032978525942</v>
       </c>
       <c r="F6">
-        <v>1.0240456304429</v>
+        <v>1.024045630442901</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050891188371265</v>
+        <v>1.050891188371266</v>
       </c>
       <c r="J6">
-        <v>1.033750268618445</v>
+        <v>1.033750268618446</v>
       </c>
       <c r="K6">
-        <v>1.038802907787553</v>
+        <v>1.038802907787555</v>
       </c>
       <c r="L6">
         <v>1.003218526579442</v>
       </c>
       <c r="M6">
-        <v>1.033608182015034</v>
+        <v>1.033608182015035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.012985607920486</v>
       </c>
       <c r="D7">
-        <v>1.027583608537743</v>
+        <v>1.027583608537742</v>
       </c>
       <c r="E7">
-        <v>0.9916139721388891</v>
+        <v>0.9916139721388895</v>
       </c>
       <c r="F7">
         <v>1.022025027460799</v>
@@ -632,13 +632,13 @@
         <v>1.03205690266321</v>
       </c>
       <c r="K7">
-        <v>1.037357249194975</v>
+        <v>1.037357249194974</v>
       </c>
       <c r="L7">
         <v>1.001811638185124</v>
       </c>
       <c r="M7">
-        <v>1.031861788280629</v>
+        <v>1.031861788280628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003228149429948</v>
+        <v>1.003228149429946</v>
       </c>
       <c r="D8">
-        <v>1.020194541255294</v>
+        <v>1.020194541255292</v>
       </c>
       <c r="E8">
-        <v>0.9843683184438773</v>
+        <v>0.9843683184438768</v>
       </c>
       <c r="F8">
-        <v>1.013333863553504</v>
+        <v>1.013333863553502</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046465348287759</v>
+        <v>1.046465348287758</v>
       </c>
       <c r="J8">
-        <v>1.024743122562872</v>
+        <v>1.02474312256287</v>
       </c>
       <c r="K8">
-        <v>1.031107740017977</v>
+        <v>1.031107740017975</v>
       </c>
       <c r="L8">
-        <v>0.9957642784267297</v>
+        <v>0.9957642784267291</v>
       </c>
       <c r="M8">
-        <v>1.024336198230627</v>
+        <v>1.024336198230625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9847531498318111</v>
+        <v>0.9847531498318113</v>
       </c>
       <c r="D9">
         <v>1.00622887516831</v>
       </c>
       <c r="E9">
-        <v>0.9708203780206214</v>
+        <v>0.9708203780206217</v>
       </c>
       <c r="F9">
-        <v>0.9969756326269178</v>
+        <v>0.9969756326269182</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1.019221695173373</v>
       </c>
       <c r="L9">
-        <v>0.9844053068353724</v>
+        <v>0.9844053068353726</v>
       </c>
       <c r="M9">
         <v>1.010117969403821</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9714088195317541</v>
+        <v>0.9714088195317534</v>
       </c>
       <c r="D10">
-        <v>0.9961684838970007</v>
+        <v>0.9961684838970003</v>
       </c>
       <c r="E10">
-        <v>0.961172098539412</v>
+        <v>0.9611720985394119</v>
       </c>
       <c r="F10">
-        <v>0.9852389775222867</v>
+        <v>0.9852389775222861</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034469555298142</v>
       </c>
       <c r="J10">
-        <v>1.000804596754113</v>
+        <v>1.000804596754112</v>
       </c>
       <c r="K10">
         <v>1.010607263873981</v>
       </c>
       <c r="L10">
-        <v>0.9762796697821802</v>
+        <v>0.9762796697821799</v>
       </c>
       <c r="M10">
-        <v>0.9998799613129634</v>
+        <v>0.999879961312963</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9653426681718812</v>
+        <v>0.9653426681718819</v>
       </c>
       <c r="D11">
-        <v>0.9916041164072436</v>
+        <v>0.9916041164072437</v>
       </c>
       <c r="E11">
-        <v>0.9568241537601914</v>
+        <v>0.9568241537601911</v>
       </c>
       <c r="F11">
-        <v>0.9799255387350545</v>
+        <v>0.9799255387350547</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032148795097593</v>
       </c>
       <c r="J11">
-        <v>0.9962318495402369</v>
+        <v>0.9962318495402374</v>
       </c>
       <c r="K11">
-        <v>1.006686122916794</v>
+        <v>1.006686122916795</v>
       </c>
       <c r="L11">
-        <v>0.9726089735235229</v>
+        <v>0.9726089735235227</v>
       </c>
       <c r="M11">
-        <v>0.9952362263354328</v>
+        <v>0.995236226335433</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9630417559520246</v>
+        <v>0.963041755952022</v>
       </c>
       <c r="D12">
-        <v>0.9898744298164395</v>
+        <v>0.9898744298164373</v>
       </c>
       <c r="E12">
-        <v>0.9551812094610139</v>
+        <v>0.9551812094610124</v>
       </c>
       <c r="F12">
-        <v>0.9779137335395658</v>
+        <v>0.9779137335395637</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031266361975957</v>
+        <v>1.031266361975955</v>
       </c>
       <c r="J12">
-        <v>0.9944970101385533</v>
+        <v>0.9944970101385509</v>
       </c>
       <c r="K12">
-        <v>1.005198225291494</v>
+        <v>1.005198225291492</v>
       </c>
       <c r="L12">
-        <v>0.9712205669659959</v>
+        <v>0.9712205669659945</v>
       </c>
       <c r="M12">
-        <v>0.9934766672820382</v>
+        <v>0.9934766672820361</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9635375444896211</v>
+        <v>0.9635375444896201</v>
       </c>
       <c r="D13">
-        <v>0.9902470574157478</v>
+        <v>0.9902470574157471</v>
       </c>
       <c r="E13">
-        <v>0.9555349314300071</v>
+        <v>0.9555349314300061</v>
       </c>
       <c r="F13">
-        <v>0.9783470589127526</v>
+        <v>0.9783470589127518</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031456599178765</v>
+        <v>1.031456599178764</v>
       </c>
       <c r="J13">
-        <v>0.9948708389219042</v>
+        <v>0.9948708389219034</v>
       </c>
       <c r="K13">
         <v>1.005518853488275</v>
       </c>
       <c r="L13">
-        <v>0.9715195500650182</v>
+        <v>0.9715195500650173</v>
       </c>
       <c r="M13">
-        <v>0.9938557207167306</v>
+        <v>0.9938557207167298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9651534743274938</v>
+        <v>0.9651534743274952</v>
       </c>
       <c r="D14">
-        <v>0.9914618580879386</v>
+        <v>0.9914618580879396</v>
       </c>
       <c r="E14">
-        <v>0.9566889318392144</v>
+        <v>0.9566889318392143</v>
       </c>
       <c r="F14">
-        <v>0.9797600419841944</v>
+        <v>0.9797600419841948</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032076279465054</v>
+        <v>1.032076279465055</v>
       </c>
       <c r="J14">
-        <v>0.9960892081790971</v>
+        <v>0.9960892081790985</v>
       </c>
       <c r="K14">
-        <v>1.00656379064144</v>
+        <v>1.006563790641441</v>
       </c>
       <c r="L14">
-        <v>0.9724947292723789</v>
+        <v>0.9724947292723788</v>
       </c>
       <c r="M14">
-        <v>0.9950915068717797</v>
+        <v>0.9950915068717799</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9661426422196995</v>
+        <v>0.9661426422196988</v>
       </c>
       <c r="D15">
-        <v>0.9922056978293997</v>
+        <v>0.9922056978293989</v>
       </c>
       <c r="E15">
-        <v>0.9573961736580221</v>
+        <v>0.9573961736580215</v>
       </c>
       <c r="F15">
-        <v>0.9806254618066961</v>
+        <v>0.9806254618066956</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032455328251097</v>
       </c>
       <c r="J15">
-        <v>0.9968349697690331</v>
+        <v>0.9968349697690325</v>
       </c>
       <c r="K15">
-        <v>1.007203361104477</v>
+        <v>1.007203361104476</v>
       </c>
       <c r="L15">
-        <v>0.9730921970433377</v>
+        <v>0.9730921970433373</v>
       </c>
       <c r="M15">
-        <v>0.9958482238693667</v>
+        <v>0.9958482238693663</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9718049804651747</v>
+        <v>0.9718049804651728</v>
       </c>
       <c r="D16">
-        <v>0.996466773204533</v>
+        <v>0.9964667732045316</v>
       </c>
       <c r="E16">
-        <v>0.9614568775399668</v>
+        <v>0.9614568775399664</v>
       </c>
       <c r="F16">
-        <v>0.9855864585317753</v>
+        <v>0.9855864585317737</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034620811979647</v>
+        <v>1.034620811979646</v>
       </c>
       <c r="J16">
-        <v>1.001103167763222</v>
+        <v>1.001103167763221</v>
       </c>
       <c r="K16">
-        <v>1.010863249243981</v>
+        <v>1.01086324924398</v>
       </c>
       <c r="L16">
-        <v>0.9765199032802176</v>
+        <v>0.976519903280217</v>
       </c>
       <c r="M16">
-        <v>1.000183464260791</v>
+        <v>1.000183464260789</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9752767946446752</v>
+        <v>0.9752767946446739</v>
       </c>
       <c r="D17">
-        <v>0.9990819092337578</v>
+        <v>0.9990819092337566</v>
       </c>
       <c r="E17">
-        <v>0.9639569173149902</v>
+        <v>0.9639569173149897</v>
       </c>
       <c r="F17">
-        <v>0.9886341556282815</v>
+        <v>0.9886341556282802</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035944665694134</v>
+        <v>1.035944665694133</v>
       </c>
       <c r="J17">
-        <v>1.003719360445126</v>
+        <v>1.003719360445125</v>
       </c>
       <c r="K17">
-        <v>1.0131060550786</v>
+        <v>1.013106055078599</v>
       </c>
       <c r="L17">
-        <v>0.9786278713385763</v>
+        <v>0.9786278713385755</v>
       </c>
       <c r="M17">
-        <v>1.002844447968525</v>
+        <v>1.002844447968524</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9772743890137359</v>
+        <v>0.9772743890137378</v>
       </c>
       <c r="D18">
-        <v>1.00058741362876</v>
+        <v>1.000587413628761</v>
       </c>
       <c r="E18">
-        <v>0.9653989029910405</v>
+        <v>0.9653989029910408</v>
       </c>
       <c r="F18">
-        <v>0.9903897521567229</v>
+        <v>0.9903897521567245</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.036704935582341</v>
       </c>
       <c r="J18">
-        <v>1.005224314105496</v>
+        <v>1.005224314105498</v>
       </c>
       <c r="K18">
-        <v>1.01439601524608</v>
+        <v>1.014396015246082</v>
       </c>
       <c r="L18">
-        <v>0.9798428777999996</v>
+        <v>0.9798428778000001</v>
       </c>
       <c r="M18">
-        <v>1.004376458875959</v>
+        <v>1.00437645887596</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9779509840530504</v>
+        <v>0.9779509840530478</v>
       </c>
       <c r="D19">
-        <v>1.001097467777528</v>
+        <v>1.001097467777525</v>
       </c>
       <c r="E19">
-        <v>0.9658878941129592</v>
+        <v>0.9658878941129586</v>
       </c>
       <c r="F19">
-        <v>0.9909847168557887</v>
+        <v>0.9909847168557868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036962194326541</v>
+        <v>1.03696219432654</v>
       </c>
       <c r="J19">
-        <v>1.005733988057269</v>
+        <v>1.005733988057266</v>
       </c>
       <c r="K19">
-        <v>1.014832842475867</v>
+        <v>1.014832842475864</v>
       </c>
       <c r="L19">
-        <v>0.9802547567969178</v>
+        <v>0.9802547567969172</v>
       </c>
       <c r="M19">
-        <v>1.004895511773928</v>
+        <v>1.004895511773926</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,13 +1108,13 @@
         <v>0.9749071716479295</v>
       </c>
       <c r="D20">
-        <v>0.9988034045300932</v>
+        <v>0.9988034045300934</v>
       </c>
       <c r="E20">
         <v>0.9636903830988526</v>
       </c>
       <c r="F20">
-        <v>0.9883094728153169</v>
+        <v>0.988309472815317</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9646789778737538</v>
+        <v>0.9646789778737551</v>
       </c>
       <c r="D21">
-        <v>0.9911051020214524</v>
+        <v>0.9911051020214534</v>
       </c>
       <c r="E21">
-        <v>0.9563498987948351</v>
+        <v>0.9563498987948357</v>
       </c>
       <c r="F21">
-        <v>0.9793450366253394</v>
+        <v>0.9793450366253398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031894376680698</v>
+        <v>1.031894376680699</v>
       </c>
       <c r="J21">
-        <v>0.9957314593408289</v>
+        <v>0.99573145934083</v>
       </c>
       <c r="K21">
-        <v>1.00625697347117</v>
+        <v>1.006256973471171</v>
       </c>
       <c r="L21">
-        <v>0.9722082699755004</v>
+        <v>0.9722082699755012</v>
       </c>
       <c r="M21">
-        <v>0.9947285821001045</v>
+        <v>0.994728582100105</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9579696109520204</v>
+        <v>0.957969610952022</v>
       </c>
       <c r="D22">
-        <v>0.9860647453736965</v>
+        <v>0.9860647453736981</v>
       </c>
       <c r="E22">
-        <v>0.9515716814833338</v>
+        <v>0.9515716814833346</v>
       </c>
       <c r="F22">
-        <v>0.9734859312559284</v>
+        <v>0.9734859312559297</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029317296642258</v>
+        <v>1.029317296642259</v>
       </c>
       <c r="J22">
-        <v>0.9906721936504592</v>
+        <v>0.990672193650461</v>
       </c>
       <c r="K22">
-        <v>1.001917410972599</v>
+        <v>1.001917410972601</v>
       </c>
       <c r="L22">
-        <v>0.9681676864517469</v>
+        <v>0.9681676864517476</v>
       </c>
       <c r="M22">
-        <v>0.9896015931804282</v>
+        <v>0.9896015931804295</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9615544162790426</v>
+        <v>0.9615544162790417</v>
       </c>
       <c r="D23">
-        <v>0.9887568210814357</v>
+        <v>0.988756821081435</v>
       </c>
       <c r="E23">
-        <v>0.9541210226930721</v>
+        <v>0.9541210226930718</v>
       </c>
       <c r="F23">
-        <v>0.9766143343482027</v>
+        <v>0.976614334348202</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.030695354979662</v>
       </c>
       <c r="J23">
-        <v>0.9933754997281411</v>
+        <v>0.9933754997281403</v>
       </c>
       <c r="K23">
-        <v>1.004236285046325</v>
+        <v>1.004236285046324</v>
       </c>
       <c r="L23">
-        <v>0.9703242414702711</v>
+        <v>0.9703242414702707</v>
       </c>
       <c r="M23">
-        <v>0.9923398176395649</v>
+        <v>0.992339817639564</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9750742728912213</v>
+        <v>0.9750742728912217</v>
       </c>
       <c r="D24">
-        <v>0.9989293099692949</v>
+        <v>0.9989293099692954</v>
       </c>
       <c r="E24">
-        <v>0.9638108684667641</v>
+        <v>0.9638108684667646</v>
       </c>
       <c r="F24">
-        <v>0.988456250965803</v>
+        <v>0.9884562509658036</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035867527331196</v>
       </c>
       <c r="J24">
-        <v>1.003566769532805</v>
+        <v>1.003566769532806</v>
       </c>
       <c r="K24">
-        <v>1.012975254250033</v>
+        <v>1.012975254250034</v>
       </c>
       <c r="L24">
-        <v>0.9785047771952038</v>
+        <v>0.9785047771952045</v>
       </c>
       <c r="M24">
-        <v>1.002689166553818</v>
+        <v>1.002689166553819</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9896970898195395</v>
+        <v>0.9896970898195399</v>
       </c>
       <c r="D25">
         <v>1.009962303574845</v>
       </c>
       <c r="E25">
-        <v>0.9744241296745025</v>
+        <v>0.9744241296745026</v>
       </c>
       <c r="F25">
         <v>1.001340692932143</v>
@@ -1313,16 +1313,16 @@
         <v>1.041406396457791</v>
       </c>
       <c r="J25">
-        <v>1.014576233384783</v>
+        <v>1.014576233384784</v>
       </c>
       <c r="K25">
         <v>1.022407911317245</v>
       </c>
       <c r="L25">
-        <v>0.9874328925171757</v>
+        <v>0.9874328925171759</v>
       </c>
       <c r="M25">
-        <v>1.013918231960553</v>
+        <v>1.013918231960554</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.018231908271261</v>
       </c>
       <c r="E2">
-        <v>0.9824530820691734</v>
+        <v>0.9824530820691737</v>
       </c>
       <c r="F2">
-        <v>1.011029866590674</v>
+        <v>1.011029866590673</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.022796428867557</v>
       </c>
       <c r="K2">
-        <v>1.02944295523157</v>
+        <v>1.029442955231569</v>
       </c>
       <c r="L2">
-        <v>0.9941624098326147</v>
+        <v>0.9941624098326149</v>
       </c>
       <c r="M2">
-        <v>1.022337647143553</v>
+        <v>1.022337647143552</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,19 +462,19 @@
         <v>1.008210680926495</v>
       </c>
       <c r="D3">
-        <v>1.02396677087602</v>
+        <v>1.023966770876021</v>
       </c>
       <c r="E3">
-        <v>0.9880602996128852</v>
+        <v>0.9880602996128854</v>
       </c>
       <c r="F3">
-        <v>1.017767383816828</v>
+        <v>1.017767383816829</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048308606321088</v>
+        <v>1.048308606321089</v>
       </c>
       <c r="J3">
         <v>1.028479989855676</v>
@@ -483,7 +483,7 @@
         <v>1.034301908070475</v>
       </c>
       <c r="L3">
-        <v>0.9988482655791294</v>
+        <v>0.9988482655791296</v>
       </c>
       <c r="M3">
         <v>1.02817786497852</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012959262960674</v>
+        <v>1.012959262960673</v>
       </c>
       <c r="D4">
-        <v>1.02756364891865</v>
+        <v>1.027563648918649</v>
       </c>
       <c r="E4">
         <v>0.9915943232162214</v>
       </c>
       <c r="F4">
-        <v>1.022001512577144</v>
+        <v>1.022001512577143</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050054041885524</v>
+        <v>1.050054041885523</v>
       </c>
       <c r="J4">
-        <v>1.03203717995294</v>
+        <v>1.032037179952939</v>
       </c>
       <c r="K4">
-        <v>1.037340408453104</v>
+        <v>1.037340408453103</v>
       </c>
       <c r="L4">
         <v>1.001795267320814</v>
       </c>
       <c r="M4">
-        <v>1.0318414570482</v>
+        <v>1.031841457048199</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014920887685488</v>
+        <v>1.014920887685489</v>
       </c>
       <c r="D5">
         <v>1.02904994335885</v>
       </c>
       <c r="E5">
-        <v>0.9930586515148074</v>
+        <v>0.9930586515148082</v>
       </c>
       <c r="F5">
-        <v>1.023753143709654</v>
+        <v>1.023753143709655</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050771629824796</v>
+        <v>1.050771629824797</v>
       </c>
       <c r="J5">
         <v>1.033505320244376</v>
       </c>
       <c r="K5">
-        <v>1.038593823668302</v>
+        <v>1.038593823668303</v>
       </c>
       <c r="L5">
         <v>1.003014857069834</v>
       </c>
       <c r="M5">
-        <v>1.03335546697508</v>
+        <v>1.033355466975082</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015248276963696</v>
+        <v>1.015248276963695</v>
       </c>
       <c r="D6">
-        <v>1.029298023750335</v>
+        <v>1.029298023750334</v>
       </c>
       <c r="E6">
-        <v>0.9933032978525942</v>
+        <v>0.993303297852594</v>
       </c>
       <c r="F6">
-        <v>1.024045630442901</v>
+        <v>1.0240456304429</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050891188371266</v>
+        <v>1.050891188371265</v>
       </c>
       <c r="J6">
-        <v>1.033750268618446</v>
+        <v>1.033750268618445</v>
       </c>
       <c r="K6">
-        <v>1.038802907787555</v>
+        <v>1.038802907787553</v>
       </c>
       <c r="L6">
         <v>1.003218526579442</v>
       </c>
       <c r="M6">
-        <v>1.033608182015035</v>
+        <v>1.033608182015034</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.012985607920486</v>
       </c>
       <c r="D7">
-        <v>1.027583608537742</v>
+        <v>1.027583608537743</v>
       </c>
       <c r="E7">
-        <v>0.9916139721388895</v>
+        <v>0.9916139721388891</v>
       </c>
       <c r="F7">
         <v>1.022025027460799</v>
@@ -632,13 +632,13 @@
         <v>1.03205690266321</v>
       </c>
       <c r="K7">
-        <v>1.037357249194974</v>
+        <v>1.037357249194975</v>
       </c>
       <c r="L7">
         <v>1.001811638185124</v>
       </c>
       <c r="M7">
-        <v>1.031861788280628</v>
+        <v>1.031861788280629</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003228149429946</v>
+        <v>1.003228149429948</v>
       </c>
       <c r="D8">
-        <v>1.020194541255292</v>
+        <v>1.020194541255294</v>
       </c>
       <c r="E8">
-        <v>0.9843683184438768</v>
+        <v>0.9843683184438773</v>
       </c>
       <c r="F8">
-        <v>1.013333863553502</v>
+        <v>1.013333863553504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046465348287758</v>
+        <v>1.046465348287759</v>
       </c>
       <c r="J8">
-        <v>1.02474312256287</v>
+        <v>1.024743122562872</v>
       </c>
       <c r="K8">
-        <v>1.031107740017975</v>
+        <v>1.031107740017977</v>
       </c>
       <c r="L8">
-        <v>0.9957642784267291</v>
+        <v>0.9957642784267297</v>
       </c>
       <c r="M8">
-        <v>1.024336198230625</v>
+        <v>1.024336198230627</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9847531498318113</v>
+        <v>0.9847531498318111</v>
       </c>
       <c r="D9">
         <v>1.00622887516831</v>
       </c>
       <c r="E9">
-        <v>0.9708203780206217</v>
+        <v>0.9708203780206214</v>
       </c>
       <c r="F9">
-        <v>0.9969756326269182</v>
+        <v>0.9969756326269178</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1.019221695173373</v>
       </c>
       <c r="L9">
-        <v>0.9844053068353726</v>
+        <v>0.9844053068353724</v>
       </c>
       <c r="M9">
         <v>1.010117969403821</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9714088195317534</v>
+        <v>0.9714088195317541</v>
       </c>
       <c r="D10">
-        <v>0.9961684838970003</v>
+        <v>0.9961684838970007</v>
       </c>
       <c r="E10">
-        <v>0.9611720985394119</v>
+        <v>0.961172098539412</v>
       </c>
       <c r="F10">
-        <v>0.9852389775222861</v>
+        <v>0.9852389775222867</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.034469555298142</v>
       </c>
       <c r="J10">
-        <v>1.000804596754112</v>
+        <v>1.000804596754113</v>
       </c>
       <c r="K10">
         <v>1.010607263873981</v>
       </c>
       <c r="L10">
-        <v>0.9762796697821799</v>
+        <v>0.9762796697821802</v>
       </c>
       <c r="M10">
-        <v>0.999879961312963</v>
+        <v>0.9998799613129634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9653426681718819</v>
+        <v>0.9653426681718812</v>
       </c>
       <c r="D11">
-        <v>0.9916041164072437</v>
+        <v>0.9916041164072436</v>
       </c>
       <c r="E11">
-        <v>0.9568241537601911</v>
+        <v>0.9568241537601914</v>
       </c>
       <c r="F11">
-        <v>0.9799255387350547</v>
+        <v>0.9799255387350545</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032148795097593</v>
       </c>
       <c r="J11">
-        <v>0.9962318495402374</v>
+        <v>0.9962318495402369</v>
       </c>
       <c r="K11">
-        <v>1.006686122916795</v>
+        <v>1.006686122916794</v>
       </c>
       <c r="L11">
-        <v>0.9726089735235227</v>
+        <v>0.9726089735235229</v>
       </c>
       <c r="M11">
-        <v>0.995236226335433</v>
+        <v>0.9952362263354328</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.963041755952022</v>
+        <v>0.9630417559520246</v>
       </c>
       <c r="D12">
-        <v>0.9898744298164373</v>
+        <v>0.9898744298164395</v>
       </c>
       <c r="E12">
-        <v>0.9551812094610124</v>
+        <v>0.9551812094610139</v>
       </c>
       <c r="F12">
-        <v>0.9779137335395637</v>
+        <v>0.9779137335395658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031266361975955</v>
+        <v>1.031266361975957</v>
       </c>
       <c r="J12">
-        <v>0.9944970101385509</v>
+        <v>0.9944970101385533</v>
       </c>
       <c r="K12">
-        <v>1.005198225291492</v>
+        <v>1.005198225291494</v>
       </c>
       <c r="L12">
-        <v>0.9712205669659945</v>
+        <v>0.9712205669659959</v>
       </c>
       <c r="M12">
-        <v>0.9934766672820361</v>
+        <v>0.9934766672820382</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9635375444896201</v>
+        <v>0.9635375444896211</v>
       </c>
       <c r="D13">
-        <v>0.9902470574157471</v>
+        <v>0.9902470574157478</v>
       </c>
       <c r="E13">
-        <v>0.9555349314300061</v>
+        <v>0.9555349314300071</v>
       </c>
       <c r="F13">
-        <v>0.9783470589127518</v>
+        <v>0.9783470589127526</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031456599178764</v>
+        <v>1.031456599178765</v>
       </c>
       <c r="J13">
-        <v>0.9948708389219034</v>
+        <v>0.9948708389219042</v>
       </c>
       <c r="K13">
         <v>1.005518853488275</v>
       </c>
       <c r="L13">
-        <v>0.9715195500650173</v>
+        <v>0.9715195500650182</v>
       </c>
       <c r="M13">
-        <v>0.9938557207167298</v>
+        <v>0.9938557207167306</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9651534743274952</v>
+        <v>0.9651534743274938</v>
       </c>
       <c r="D14">
-        <v>0.9914618580879396</v>
+        <v>0.9914618580879386</v>
       </c>
       <c r="E14">
-        <v>0.9566889318392143</v>
+        <v>0.9566889318392144</v>
       </c>
       <c r="F14">
-        <v>0.9797600419841948</v>
+        <v>0.9797600419841944</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032076279465055</v>
+        <v>1.032076279465054</v>
       </c>
       <c r="J14">
-        <v>0.9960892081790985</v>
+        <v>0.9960892081790971</v>
       </c>
       <c r="K14">
-        <v>1.006563790641441</v>
+        <v>1.00656379064144</v>
       </c>
       <c r="L14">
-        <v>0.9724947292723788</v>
+        <v>0.9724947292723789</v>
       </c>
       <c r="M14">
-        <v>0.9950915068717799</v>
+        <v>0.9950915068717797</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9661426422196988</v>
+        <v>0.9661426422196995</v>
       </c>
       <c r="D15">
-        <v>0.9922056978293989</v>
+        <v>0.9922056978293997</v>
       </c>
       <c r="E15">
-        <v>0.9573961736580215</v>
+        <v>0.9573961736580221</v>
       </c>
       <c r="F15">
-        <v>0.9806254618066956</v>
+        <v>0.9806254618066961</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032455328251097</v>
       </c>
       <c r="J15">
-        <v>0.9968349697690325</v>
+        <v>0.9968349697690331</v>
       </c>
       <c r="K15">
-        <v>1.007203361104476</v>
+        <v>1.007203361104477</v>
       </c>
       <c r="L15">
-        <v>0.9730921970433373</v>
+        <v>0.9730921970433377</v>
       </c>
       <c r="M15">
-        <v>0.9958482238693663</v>
+        <v>0.9958482238693667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9718049804651728</v>
+        <v>0.9718049804651747</v>
       </c>
       <c r="D16">
-        <v>0.9964667732045316</v>
+        <v>0.996466773204533</v>
       </c>
       <c r="E16">
-        <v>0.9614568775399664</v>
+        <v>0.9614568775399668</v>
       </c>
       <c r="F16">
-        <v>0.9855864585317737</v>
+        <v>0.9855864585317753</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034620811979646</v>
+        <v>1.034620811979647</v>
       </c>
       <c r="J16">
-        <v>1.001103167763221</v>
+        <v>1.001103167763222</v>
       </c>
       <c r="K16">
-        <v>1.01086324924398</v>
+        <v>1.010863249243981</v>
       </c>
       <c r="L16">
-        <v>0.976519903280217</v>
+        <v>0.9765199032802176</v>
       </c>
       <c r="M16">
-        <v>1.000183464260789</v>
+        <v>1.000183464260791</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9752767946446739</v>
+        <v>0.9752767946446752</v>
       </c>
       <c r="D17">
-        <v>0.9990819092337566</v>
+        <v>0.9990819092337578</v>
       </c>
       <c r="E17">
-        <v>0.9639569173149897</v>
+        <v>0.9639569173149902</v>
       </c>
       <c r="F17">
-        <v>0.9886341556282802</v>
+        <v>0.9886341556282815</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035944665694133</v>
+        <v>1.035944665694134</v>
       </c>
       <c r="J17">
-        <v>1.003719360445125</v>
+        <v>1.003719360445126</v>
       </c>
       <c r="K17">
-        <v>1.013106055078599</v>
+        <v>1.0131060550786</v>
       </c>
       <c r="L17">
-        <v>0.9786278713385755</v>
+        <v>0.9786278713385763</v>
       </c>
       <c r="M17">
-        <v>1.002844447968524</v>
+        <v>1.002844447968525</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9772743890137378</v>
+        <v>0.9772743890137359</v>
       </c>
       <c r="D18">
-        <v>1.000587413628761</v>
+        <v>1.00058741362876</v>
       </c>
       <c r="E18">
-        <v>0.9653989029910408</v>
+        <v>0.9653989029910405</v>
       </c>
       <c r="F18">
-        <v>0.9903897521567245</v>
+        <v>0.9903897521567229</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.036704935582341</v>
       </c>
       <c r="J18">
-        <v>1.005224314105498</v>
+        <v>1.005224314105496</v>
       </c>
       <c r="K18">
-        <v>1.014396015246082</v>
+        <v>1.01439601524608</v>
       </c>
       <c r="L18">
-        <v>0.9798428778000001</v>
+        <v>0.9798428777999996</v>
       </c>
       <c r="M18">
-        <v>1.00437645887596</v>
+        <v>1.004376458875959</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9779509840530478</v>
+        <v>0.9779509840530504</v>
       </c>
       <c r="D19">
-        <v>1.001097467777525</v>
+        <v>1.001097467777528</v>
       </c>
       <c r="E19">
-        <v>0.9658878941129586</v>
+        <v>0.9658878941129592</v>
       </c>
       <c r="F19">
-        <v>0.9909847168557868</v>
+        <v>0.9909847168557887</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03696219432654</v>
+        <v>1.036962194326541</v>
       </c>
       <c r="J19">
-        <v>1.005733988057266</v>
+        <v>1.005733988057269</v>
       </c>
       <c r="K19">
-        <v>1.014832842475864</v>
+        <v>1.014832842475867</v>
       </c>
       <c r="L19">
-        <v>0.9802547567969172</v>
+        <v>0.9802547567969178</v>
       </c>
       <c r="M19">
-        <v>1.004895511773926</v>
+        <v>1.004895511773928</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,13 +1108,13 @@
         <v>0.9749071716479295</v>
       </c>
       <c r="D20">
-        <v>0.9988034045300934</v>
+        <v>0.9988034045300932</v>
       </c>
       <c r="E20">
         <v>0.9636903830988526</v>
       </c>
       <c r="F20">
-        <v>0.988309472815317</v>
+        <v>0.9883094728153169</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9646789778737551</v>
+        <v>0.9646789778737538</v>
       </c>
       <c r="D21">
-        <v>0.9911051020214534</v>
+        <v>0.9911051020214524</v>
       </c>
       <c r="E21">
-        <v>0.9563498987948357</v>
+        <v>0.9563498987948351</v>
       </c>
       <c r="F21">
-        <v>0.9793450366253398</v>
+        <v>0.9793450366253394</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031894376680699</v>
+        <v>1.031894376680698</v>
       </c>
       <c r="J21">
-        <v>0.99573145934083</v>
+        <v>0.9957314593408289</v>
       </c>
       <c r="K21">
-        <v>1.006256973471171</v>
+        <v>1.00625697347117</v>
       </c>
       <c r="L21">
-        <v>0.9722082699755012</v>
+        <v>0.9722082699755004</v>
       </c>
       <c r="M21">
-        <v>0.994728582100105</v>
+        <v>0.9947285821001045</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.957969610952022</v>
+        <v>0.9579696109520204</v>
       </c>
       <c r="D22">
-        <v>0.9860647453736981</v>
+        <v>0.9860647453736965</v>
       </c>
       <c r="E22">
-        <v>0.9515716814833346</v>
+        <v>0.9515716814833338</v>
       </c>
       <c r="F22">
-        <v>0.9734859312559297</v>
+        <v>0.9734859312559284</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029317296642259</v>
+        <v>1.029317296642258</v>
       </c>
       <c r="J22">
-        <v>0.990672193650461</v>
+        <v>0.9906721936504592</v>
       </c>
       <c r="K22">
-        <v>1.001917410972601</v>
+        <v>1.001917410972599</v>
       </c>
       <c r="L22">
-        <v>0.9681676864517476</v>
+        <v>0.9681676864517469</v>
       </c>
       <c r="M22">
-        <v>0.9896015931804295</v>
+        <v>0.9896015931804282</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9615544162790417</v>
+        <v>0.9615544162790426</v>
       </c>
       <c r="D23">
-        <v>0.988756821081435</v>
+        <v>0.9887568210814357</v>
       </c>
       <c r="E23">
-        <v>0.9541210226930718</v>
+        <v>0.9541210226930721</v>
       </c>
       <c r="F23">
-        <v>0.976614334348202</v>
+        <v>0.9766143343482027</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.030695354979662</v>
       </c>
       <c r="J23">
-        <v>0.9933754997281403</v>
+        <v>0.9933754997281411</v>
       </c>
       <c r="K23">
-        <v>1.004236285046324</v>
+        <v>1.004236285046325</v>
       </c>
       <c r="L23">
-        <v>0.9703242414702707</v>
+        <v>0.9703242414702711</v>
       </c>
       <c r="M23">
-        <v>0.992339817639564</v>
+        <v>0.9923398176395649</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9750742728912217</v>
+        <v>0.9750742728912213</v>
       </c>
       <c r="D24">
-        <v>0.9989293099692954</v>
+        <v>0.9989293099692949</v>
       </c>
       <c r="E24">
-        <v>0.9638108684667646</v>
+        <v>0.9638108684667641</v>
       </c>
       <c r="F24">
-        <v>0.9884562509658036</v>
+        <v>0.988456250965803</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035867527331196</v>
       </c>
       <c r="J24">
-        <v>1.003566769532806</v>
+        <v>1.003566769532805</v>
       </c>
       <c r="K24">
-        <v>1.012975254250034</v>
+        <v>1.012975254250033</v>
       </c>
       <c r="L24">
-        <v>0.9785047771952045</v>
+        <v>0.9785047771952038</v>
       </c>
       <c r="M24">
-        <v>1.002689166553819</v>
+        <v>1.002689166553818</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9896970898195399</v>
+        <v>0.9896970898195395</v>
       </c>
       <c r="D25">
         <v>1.009962303574845</v>
       </c>
       <c r="E25">
-        <v>0.9744241296745026</v>
+        <v>0.9744241296745025</v>
       </c>
       <c r="F25">
         <v>1.001340692932143</v>
@@ -1313,16 +1313,16 @@
         <v>1.041406396457791</v>
       </c>
       <c r="J25">
-        <v>1.014576233384784</v>
+        <v>1.014576233384783</v>
       </c>
       <c r="K25">
         <v>1.022407911317245</v>
       </c>
       <c r="L25">
-        <v>0.9874328925171759</v>
+        <v>0.9874328925171757</v>
       </c>
       <c r="M25">
-        <v>1.013918231960554</v>
+        <v>1.013918231960553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.000634684547594</v>
+        <v>1.003259666117376</v>
       </c>
       <c r="D2">
-        <v>1.018231908271261</v>
+        <v>1.020249767805494</v>
       </c>
       <c r="E2">
-        <v>0.9824530820691737</v>
+        <v>0.9832609931278262</v>
       </c>
       <c r="F2">
-        <v>1.011029866590673</v>
+        <v>1.012851592526114</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045501462171364</v>
+        <v>1.046676502123264</v>
       </c>
       <c r="J2">
-        <v>1.022796428867557</v>
+        <v>1.025343316337365</v>
       </c>
       <c r="K2">
-        <v>1.029442955231569</v>
+        <v>1.031434019402472</v>
       </c>
       <c r="L2">
-        <v>0.9941624098326149</v>
+        <v>0.9949585620269277</v>
       </c>
       <c r="M2">
-        <v>1.022337647143552</v>
+        <v>1.024134741310242</v>
+      </c>
+      <c r="N2">
+        <v>1.026799421455086</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008210680926495</v>
+        <v>1.010818026151801</v>
       </c>
       <c r="D3">
-        <v>1.023966770876021</v>
+        <v>1.025973900761108</v>
       </c>
       <c r="E3">
-        <v>0.9880602996128854</v>
+        <v>0.9888591815906834</v>
       </c>
       <c r="F3">
-        <v>1.017767383816829</v>
+        <v>1.019575694203928</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048308606321089</v>
+        <v>1.049478747879554</v>
       </c>
       <c r="J3">
-        <v>1.028479989855676</v>
+        <v>1.031018063152652</v>
       </c>
       <c r="K3">
-        <v>1.034301908070475</v>
+        <v>1.036284886516504</v>
       </c>
       <c r="L3">
-        <v>0.9988482655791296</v>
+        <v>0.9996366242978132</v>
       </c>
       <c r="M3">
-        <v>1.02817786497852</v>
+        <v>1.029964080508414</v>
+      </c>
+      <c r="N3">
+        <v>1.032482227061754</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012959262960673</v>
+        <v>1.015556333539888</v>
       </c>
       <c r="D4">
-        <v>1.027563648918649</v>
+        <v>1.029564580620613</v>
       </c>
       <c r="E4">
-        <v>0.9915943232162214</v>
+        <v>0.9923878912669336</v>
       </c>
       <c r="F4">
-        <v>1.022001512577143</v>
+        <v>1.02380197160245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050054041885523</v>
+        <v>1.05122143095588</v>
       </c>
       <c r="J4">
-        <v>1.032037179952939</v>
+        <v>1.034570307370268</v>
       </c>
       <c r="K4">
-        <v>1.037340408453103</v>
+        <v>1.039318815558437</v>
       </c>
       <c r="L4">
-        <v>1.001795267320814</v>
+        <v>1.002579064330194</v>
       </c>
       <c r="M4">
-        <v>1.031841457048199</v>
+        <v>1.033621370476132</v>
+      </c>
+      <c r="N4">
+        <v>1.036039515873607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014920887685489</v>
+        <v>1.017513886476309</v>
       </c>
       <c r="D5">
-        <v>1.02904994335885</v>
+        <v>1.031048432031024</v>
       </c>
       <c r="E5">
-        <v>0.9930586515148082</v>
+        <v>0.993850101380172</v>
       </c>
       <c r="F5">
-        <v>1.023753143709655</v>
+        <v>1.025550483187003</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050771629824797</v>
+        <v>1.051937953188237</v>
       </c>
       <c r="J5">
-        <v>1.033505320244376</v>
+        <v>1.036036533408948</v>
       </c>
       <c r="K5">
-        <v>1.038593823668303</v>
+        <v>1.040570453291044</v>
       </c>
       <c r="L5">
-        <v>1.003014857069834</v>
+        <v>1.003796841843145</v>
       </c>
       <c r="M5">
-        <v>1.033355466975082</v>
+        <v>1.03513289207847</v>
+      </c>
+      <c r="N5">
+        <v>1.037507824121439</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015248276963695</v>
+        <v>1.017840605950051</v>
       </c>
       <c r="D6">
-        <v>1.029298023750334</v>
+        <v>1.031296111350656</v>
       </c>
       <c r="E6">
-        <v>0.993303297852594</v>
+        <v>0.9940943985675604</v>
       </c>
       <c r="F6">
-        <v>1.0240456304429</v>
+        <v>1.025842456292551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050891188371265</v>
+        <v>1.05205733793513</v>
       </c>
       <c r="J6">
-        <v>1.033750268618445</v>
+        <v>1.03628116961066</v>
       </c>
       <c r="K6">
-        <v>1.038802907787553</v>
+        <v>1.04077924705548</v>
       </c>
       <c r="L6">
-        <v>1.003218526579442</v>
+        <v>1.004000212997569</v>
       </c>
       <c r="M6">
-        <v>1.033608182015034</v>
+        <v>1.035385198352108</v>
+      </c>
+      <c r="N6">
+        <v>1.037752807734619</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012985607920486</v>
+        <v>1.015582623149231</v>
       </c>
       <c r="D7">
-        <v>1.027583608537743</v>
+        <v>1.029584506975687</v>
       </c>
       <c r="E7">
-        <v>0.9916139721388891</v>
+        <v>0.992407511444532</v>
       </c>
       <c r="F7">
-        <v>1.022025027460799</v>
+        <v>1.023825444112058</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05006369295325</v>
+        <v>1.051231067434601</v>
       </c>
       <c r="J7">
-        <v>1.03205690266321</v>
+        <v>1.034590003873908</v>
       </c>
       <c r="K7">
-        <v>1.037357249194975</v>
+        <v>1.039335631999447</v>
       </c>
       <c r="L7">
-        <v>1.001811638185124</v>
+        <v>1.002595410576665</v>
       </c>
       <c r="M7">
-        <v>1.031861788280629</v>
+        <v>1.033641667845397</v>
+      </c>
+      <c r="N7">
+        <v>1.036059240348541</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003228149429948</v>
+        <v>1.005846919396721</v>
       </c>
       <c r="D8">
-        <v>1.020194541255294</v>
+        <v>1.022208610443646</v>
       </c>
       <c r="E8">
-        <v>0.9843683184438773</v>
+        <v>0.985173061756735</v>
       </c>
       <c r="F8">
-        <v>1.013333863553504</v>
+        <v>1.015150872714281</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046465348287759</v>
+        <v>1.047638641016588</v>
       </c>
       <c r="J8">
-        <v>1.024743122562872</v>
+        <v>1.027286863858028</v>
       </c>
       <c r="K8">
-        <v>1.031107740017977</v>
+        <v>1.03309592585444</v>
       </c>
       <c r="L8">
-        <v>0.9957642784267297</v>
+        <v>0.9965576909154393</v>
       </c>
       <c r="M8">
-        <v>1.024336198230627</v>
+        <v>1.026129453382222</v>
+      </c>
+      <c r="N8">
+        <v>1.028745729036157</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9847531498318111</v>
+        <v>0.98742026779706</v>
       </c>
       <c r="D9">
-        <v>1.00622887516831</v>
+        <v>1.008272680533284</v>
       </c>
       <c r="E9">
-        <v>0.9708203780206214</v>
+        <v>0.971649476967969</v>
       </c>
       <c r="F9">
-        <v>0.9969756326269178</v>
+        <v>0.9988291514066509</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039541132583206</v>
+        <v>1.040728494968029</v>
       </c>
       <c r="J9">
-        <v>1.010856045374154</v>
+        <v>1.013425205632122</v>
       </c>
       <c r="K9">
-        <v>1.019221695173373</v>
+        <v>1.021232950148259</v>
       </c>
       <c r="L9">
-        <v>0.9844053068353724</v>
+        <v>0.9852199023756542</v>
       </c>
       <c r="M9">
-        <v>1.010117969403821</v>
+        <v>1.011941253418448</v>
+      </c>
+      <c r="N9">
+        <v>1.014864385665615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9714088195317541</v>
+        <v>0.9741171173040064</v>
       </c>
       <c r="D10">
-        <v>0.9961684838970007</v>
+        <v>0.9982379017493984</v>
       </c>
       <c r="E10">
-        <v>0.961172098539412</v>
+        <v>0.9620214887817545</v>
       </c>
       <c r="F10">
-        <v>0.9852389775222867</v>
+        <v>0.9871232818447402</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034469555298142</v>
+        <v>1.035669504528349</v>
       </c>
       <c r="J10">
-        <v>1.000804596754113</v>
+        <v>1.003396666439497</v>
       </c>
       <c r="K10">
-        <v>1.010607263873981</v>
+        <v>1.012639044475787</v>
       </c>
       <c r="L10">
-        <v>0.9762796697821802</v>
+        <v>0.9771120700463897</v>
       </c>
       <c r="M10">
-        <v>0.9998799613129634</v>
+        <v>1.001728987726658</v>
+      </c>
+      <c r="N10">
+        <v>1.004821604797048</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9653426681718812</v>
+        <v>0.9680715633911633</v>
       </c>
       <c r="D11">
-        <v>0.9916041164072436</v>
+        <v>0.9936864035108234</v>
       </c>
       <c r="E11">
-        <v>0.9568241537601914</v>
+        <v>0.9576835660444333</v>
       </c>
       <c r="F11">
-        <v>0.9799255387350545</v>
+        <v>0.981825152711418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032148795097593</v>
+        <v>1.033355175847542</v>
       </c>
       <c r="J11">
-        <v>0.9962318495402369</v>
+        <v>0.9988356845625099</v>
       </c>
       <c r="K11">
-        <v>1.006686122916794</v>
+        <v>1.008728375355457</v>
       </c>
       <c r="L11">
-        <v>0.9726089735235229</v>
+        <v>0.9734502049493637</v>
       </c>
       <c r="M11">
-        <v>0.9952362263354328</v>
+        <v>0.9970981567637672</v>
+      </c>
+      <c r="N11">
+        <v>1.000254145802643</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9630417559520246</v>
+        <v>0.9657787868936967</v>
       </c>
       <c r="D12">
-        <v>0.9898744298164395</v>
+        <v>0.9919618079917591</v>
       </c>
       <c r="E12">
-        <v>0.9551812094610139</v>
+        <v>0.9560445592980571</v>
       </c>
       <c r="F12">
-        <v>0.9779137335395658</v>
+        <v>0.9798193798593066</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031266361975957</v>
+        <v>1.032475302850139</v>
       </c>
       <c r="J12">
-        <v>0.9944970101385533</v>
+        <v>0.9971055390349463</v>
       </c>
       <c r="K12">
-        <v>1.005198225291494</v>
+        <v>1.00724464455011</v>
       </c>
       <c r="L12">
-        <v>0.9712205669659959</v>
+        <v>0.9720652736821184</v>
       </c>
       <c r="M12">
-        <v>0.9934766672820382</v>
+        <v>0.9953436977825312</v>
+      </c>
+      <c r="N12">
+        <v>0.99852154326998</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9635375444896211</v>
+        <v>0.9662728070753484</v>
       </c>
       <c r="D13">
-        <v>0.9902470574157478</v>
+        <v>0.9923333286721236</v>
       </c>
       <c r="E13">
-        <v>0.9555349314300071</v>
+        <v>0.956397426388175</v>
       </c>
       <c r="F13">
-        <v>0.9783470589127526</v>
+        <v>0.9802513947479162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031456599178765</v>
+        <v>1.032664982716045</v>
       </c>
       <c r="J13">
-        <v>0.9948708389219042</v>
+        <v>0.9974783454644982</v>
       </c>
       <c r="K13">
-        <v>1.005518853488275</v>
+        <v>1.00756436569167</v>
       </c>
       <c r="L13">
-        <v>0.9715195500650182</v>
+        <v>0.9723635020107341</v>
       </c>
       <c r="M13">
-        <v>0.9938557207167306</v>
+        <v>0.9957216425576009</v>
+      </c>
+      <c r="N13">
+        <v>0.998894879127423</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9651534743274938</v>
+        <v>0.967883031703151</v>
       </c>
       <c r="D14">
-        <v>0.9914618580879386</v>
+        <v>0.9935445593950141</v>
       </c>
       <c r="E14">
-        <v>0.9566889318392144</v>
+        <v>0.9575486650280772</v>
       </c>
       <c r="F14">
-        <v>0.9797600419841944</v>
+        <v>0.9816601472297204</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032076279465054</v>
+        <v>1.033282868188758</v>
       </c>
       <c r="J14">
-        <v>0.9960892081790971</v>
+        <v>0.9986934242912343</v>
       </c>
       <c r="K14">
-        <v>1.00656379064144</v>
+        <v>1.00860638160209</v>
       </c>
       <c r="L14">
-        <v>0.9724947292723789</v>
+        <v>0.9733362438162891</v>
       </c>
       <c r="M14">
-        <v>0.9950915068717797</v>
+        <v>0.9969538523319792</v>
+      </c>
+      <c r="N14">
+        <v>1.000111683505464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9661426422196995</v>
+        <v>0.9688687510028815</v>
       </c>
       <c r="D15">
-        <v>0.9922056978293997</v>
+        <v>0.9942862422230255</v>
       </c>
       <c r="E15">
-        <v>0.9573961736580221</v>
+        <v>0.958254234684452</v>
       </c>
       <c r="F15">
-        <v>0.9806254618066961</v>
+        <v>0.9825230078627269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032455328251097</v>
+        <v>1.033660834607186</v>
       </c>
       <c r="J15">
-        <v>0.9968349697690331</v>
+        <v>0.9994372029883341</v>
       </c>
       <c r="K15">
-        <v>1.007203361104477</v>
+        <v>1.009244190220747</v>
       </c>
       <c r="L15">
-        <v>0.9730921970433377</v>
+        <v>0.9739322365473392</v>
       </c>
       <c r="M15">
-        <v>0.9958482238693667</v>
+        <v>0.9977084079116972</v>
+      </c>
+      <c r="N15">
+        <v>1.000856518453627</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9718049804651747</v>
+        <v>0.9745119751320728</v>
       </c>
       <c r="D16">
-        <v>0.996466773204533</v>
+        <v>0.9985353779684079</v>
       </c>
       <c r="E16">
-        <v>0.9614568775399668</v>
+        <v>0.9623056310559753</v>
       </c>
       <c r="F16">
-        <v>0.9855864585317753</v>
+        <v>0.9874697924073293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034620811979647</v>
+        <v>1.035820356963607</v>
       </c>
       <c r="J16">
-        <v>1.001103167763222</v>
+        <v>1.003694499252155</v>
       </c>
       <c r="K16">
-        <v>1.010863249243981</v>
+        <v>1.01289437139861</v>
       </c>
       <c r="L16">
-        <v>0.9765199032802176</v>
+        <v>0.97735174322344</v>
       </c>
       <c r="M16">
-        <v>1.000183464260791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.002031674771535</v>
+      </c>
+      <c r="N16">
+        <v>1.005119860566462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9752767946446752</v>
+        <v>0.9779725847866322</v>
       </c>
       <c r="D17">
-        <v>0.9990819092337578</v>
+        <v>1.001143528940676</v>
       </c>
       <c r="E17">
-        <v>0.9639569173149902</v>
+        <v>0.9648001822320593</v>
       </c>
       <c r="F17">
-        <v>0.9886341556282815</v>
+        <v>0.9905091356403322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035944665694134</v>
+        <v>1.037140749287837</v>
       </c>
       <c r="J17">
-        <v>1.003719360445126</v>
+        <v>1.006304377532571</v>
       </c>
       <c r="K17">
-        <v>1.0131060550786</v>
+        <v>1.015131537616701</v>
       </c>
       <c r="L17">
-        <v>0.9786278713385763</v>
+        <v>0.9794548853121976</v>
       </c>
       <c r="M17">
-        <v>1.002844447968525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.004685645971858</v>
+      </c>
+      <c r="N17">
+        <v>1.007733445173393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9772743890137359</v>
+        <v>0.9799639052899614</v>
       </c>
       <c r="D18">
-        <v>1.00058741362876</v>
+        <v>1.002645127333186</v>
       </c>
       <c r="E18">
-        <v>0.9653989029910405</v>
+        <v>0.966239083479669</v>
       </c>
       <c r="F18">
-        <v>0.9903897521567229</v>
+        <v>0.9922600467448809</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036704935582341</v>
+        <v>1.037899093052709</v>
       </c>
       <c r="J18">
-        <v>1.005224314105496</v>
+        <v>1.007805822564999</v>
       </c>
       <c r="K18">
-        <v>1.01439601524608</v>
+        <v>1.016418358105822</v>
       </c>
       <c r="L18">
-        <v>0.9798428777999996</v>
+        <v>0.9806671830414317</v>
       </c>
       <c r="M18">
-        <v>1.004376458875959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.006213732846269</v>
+      </c>
+      <c r="N18">
+        <v>1.009237022429985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9779509840530504</v>
+        <v>0.9806384035854997</v>
       </c>
       <c r="D19">
-        <v>1.001097467777528</v>
+        <v>1.0031538769924</v>
       </c>
       <c r="E19">
-        <v>0.9658878941129592</v>
+        <v>0.9667270419358558</v>
       </c>
       <c r="F19">
-        <v>0.9909847168557887</v>
+        <v>0.9928534442828174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036962194326541</v>
+        <v>1.038155710142976</v>
       </c>
       <c r="J19">
-        <v>1.005733988057269</v>
+        <v>1.008314328496731</v>
       </c>
       <c r="K19">
-        <v>1.014832842475867</v>
+        <v>1.016854139136289</v>
       </c>
       <c r="L19">
-        <v>0.9802547567969178</v>
+        <v>0.9810781557182242</v>
       </c>
       <c r="M19">
-        <v>1.004895511773928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.006731474782341</v>
+      </c>
+      <c r="N19">
+        <v>1.009746250498466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9749071716479295</v>
+        <v>0.9776041364208226</v>
       </c>
       <c r="D20">
-        <v>0.9988034045300932</v>
+        <v>1.000865755976276</v>
       </c>
       <c r="E20">
-        <v>0.9636903830988526</v>
+        <v>0.9645342245979291</v>
       </c>
       <c r="F20">
-        <v>0.9883094728153169</v>
+        <v>0.9901853294323202</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035803872061661</v>
+        <v>1.037000317270018</v>
       </c>
       <c r="J20">
-        <v>1.003440864426152</v>
+        <v>1.006026540639016</v>
       </c>
       <c r="K20">
-        <v>1.012867327310262</v>
+        <v>1.014893399172522</v>
       </c>
       <c r="L20">
-        <v>0.9784032239389997</v>
+        <v>0.9792307445365827</v>
       </c>
       <c r="M20">
-        <v>1.002561048781861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.004402981682885</v>
+      </c>
+      <c r="N20">
+        <v>1.00745521371958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9646789778737538</v>
+        <v>0.9674102012758981</v>
       </c>
       <c r="D21">
-        <v>0.9911051020214524</v>
+        <v>0.9931888456126077</v>
       </c>
       <c r="E21">
-        <v>0.9563498987948351</v>
+        <v>0.9572104390583206</v>
       </c>
       <c r="F21">
-        <v>0.9793450366253394</v>
+        <v>0.9812463776943715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031894376680698</v>
+        <v>1.033101488991489</v>
       </c>
       <c r="J21">
-        <v>0.9957314593408289</v>
+        <v>0.998336635044546</v>
       </c>
       <c r="K21">
-        <v>1.00625697347117</v>
+        <v>1.008300416659899</v>
       </c>
       <c r="L21">
-        <v>0.9722082699755004</v>
+        <v>0.9730504966506008</v>
       </c>
       <c r="M21">
-        <v>0.9947285821001045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9965919718526308</v>
+      </c>
+      <c r="N21">
+        <v>0.9997543875771215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9579696109520204</v>
+        <v>0.9607252254571139</v>
       </c>
       <c r="D22">
-        <v>0.9860647453736965</v>
+        <v>0.9881637663293441</v>
       </c>
       <c r="E22">
-        <v>0.9515716814833338</v>
+        <v>0.9524439835339882</v>
       </c>
       <c r="F22">
-        <v>0.9734859312559284</v>
+        <v>0.9754053270323131</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029317296642258</v>
+        <v>1.030532121798092</v>
       </c>
       <c r="J22">
-        <v>0.9906721936504592</v>
+        <v>0.9932915330446231</v>
       </c>
       <c r="K22">
-        <v>1.001917410972599</v>
+        <v>1.003973405334656</v>
       </c>
       <c r="L22">
-        <v>0.9681676864517469</v>
+        <v>0.9690203050068112</v>
       </c>
       <c r="M22">
-        <v>0.9896015931804282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9914802778677865</v>
+      </c>
+      <c r="N22">
+        <v>0.9947021209536777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9615544162790426</v>
+        <v>0.9642968031531819</v>
       </c>
       <c r="D23">
-        <v>0.9887568210814357</v>
+        <v>0.9908475529399785</v>
       </c>
       <c r="E23">
-        <v>0.9541210226930721</v>
+        <v>0.9549869585079535</v>
       </c>
       <c r="F23">
-        <v>0.9766143343482027</v>
+        <v>0.978523947525104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030695354979662</v>
+        <v>1.031905986749533</v>
       </c>
       <c r="J23">
-        <v>0.9933754997281411</v>
+        <v>0.9959871320153679</v>
       </c>
       <c r="K23">
-        <v>1.004236285046325</v>
+        <v>1.006285456035682</v>
       </c>
       <c r="L23">
-        <v>0.9703242414702711</v>
+        <v>0.9711712321686029</v>
       </c>
       <c r="M23">
-        <v>0.9923398176395649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9942102063834888</v>
+      </c>
+      <c r="N23">
+        <v>0.9974015479841506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9750742728912213</v>
+        <v>0.9777707060957915</v>
       </c>
       <c r="D24">
-        <v>0.9989293099692949</v>
+        <v>1.000991330257222</v>
       </c>
       <c r="E24">
-        <v>0.9638108684667641</v>
+        <v>0.9646544490739059</v>
       </c>
       <c r="F24">
-        <v>0.988456250965803</v>
+        <v>0.9903317109076724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035867527331196</v>
+        <v>1.037063808856274</v>
       </c>
       <c r="J24">
-        <v>1.003566769532805</v>
+        <v>1.006152147379554</v>
       </c>
       <c r="K24">
-        <v>1.012975254250033</v>
+        <v>1.015001059361974</v>
       </c>
       <c r="L24">
-        <v>0.9785047771952038</v>
+        <v>0.9793320685450662</v>
       </c>
       <c r="M24">
-        <v>1.002689166553818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.00453076687562</v>
+      </c>
+      <c r="N24">
+        <v>1.007580998836098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9896970898195395</v>
+        <v>0.9923503180743715</v>
       </c>
       <c r="D25">
-        <v>1.009962303574845</v>
+        <v>1.011997518900433</v>
       </c>
       <c r="E25">
-        <v>0.9744241296745025</v>
+        <v>0.9752462973643871</v>
       </c>
       <c r="F25">
-        <v>1.001340692932143</v>
+        <v>1.003183767772537</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041406396457791</v>
+        <v>1.042589620147683</v>
       </c>
       <c r="J25">
-        <v>1.014576233384783</v>
+        <v>1.017137895805605</v>
       </c>
       <c r="K25">
-        <v>1.022407911317245</v>
+        <v>1.024412400580706</v>
       </c>
       <c r="L25">
-        <v>0.9874328925171757</v>
+        <v>0.9882414348501981</v>
       </c>
       <c r="M25">
-        <v>1.013918231960553</v>
+        <v>1.015732860081962</v>
+      </c>
+      <c r="N25">
+        <v>1.018582348284996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003259666117376</v>
+        <v>1.017628399637654</v>
       </c>
       <c r="D2">
-        <v>1.020249767805494</v>
+        <v>1.035796025689274</v>
       </c>
       <c r="E2">
-        <v>0.9832609931278262</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.012851592526114</v>
+        <v>1.040036856771899</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046676502123264</v>
+        <v>1.050599476828066</v>
       </c>
       <c r="J2">
-        <v>1.025343316337365</v>
+        <v>1.03929433562706</v>
       </c>
       <c r="K2">
-        <v>1.031434019402472</v>
+        <v>1.04677821182657</v>
       </c>
       <c r="L2">
-        <v>0.9949585620269277</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.024134741310242</v>
+        <v>1.050965230861949</v>
       </c>
       <c r="N2">
-        <v>1.026799421455086</v>
+        <v>1.040770252792377</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010818026151801</v>
+        <v>1.023953236640626</v>
       </c>
       <c r="D3">
-        <v>1.025973900761108</v>
+        <v>1.040704206632556</v>
       </c>
       <c r="E3">
-        <v>0.9888591815906834</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.019575694203928</v>
+        <v>1.045474518580081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049478747879554</v>
+        <v>1.052526383170612</v>
       </c>
       <c r="J3">
-        <v>1.031018063152652</v>
+        <v>1.04381154836103</v>
       </c>
       <c r="K3">
-        <v>1.036284886516504</v>
+        <v>1.050841469526864</v>
       </c>
       <c r="L3">
-        <v>0.9996366242978132</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.029964080508414</v>
+        <v>1.055556818073135</v>
       </c>
       <c r="N3">
-        <v>1.032482227061754</v>
+        <v>1.045293880486561</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015556333539888</v>
+        <v>1.027938467777825</v>
       </c>
       <c r="D4">
-        <v>1.029564580620613</v>
+        <v>1.043799401737698</v>
       </c>
       <c r="E4">
-        <v>0.9923878912669336</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.02380197160245</v>
+        <v>1.048906208160947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05122143095588</v>
+        <v>1.053729570547846</v>
       </c>
       <c r="J4">
-        <v>1.034570307370268</v>
+        <v>1.046653533574079</v>
       </c>
       <c r="K4">
-        <v>1.039318815558437</v>
+        <v>1.053396453759678</v>
       </c>
       <c r="L4">
-        <v>1.002579064330194</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.033621370476132</v>
+        <v>1.05844814455912</v>
       </c>
       <c r="N4">
-        <v>1.036039515873607</v>
+        <v>1.048139901644592</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017513886476309</v>
+        <v>1.029589382853595</v>
       </c>
       <c r="D5">
-        <v>1.031048432031024</v>
+        <v>1.045082150267279</v>
       </c>
       <c r="E5">
-        <v>0.993850101380172</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.025550483187003</v>
+        <v>1.0503290424912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051937953188237</v>
+        <v>1.054225323982167</v>
       </c>
       <c r="J5">
-        <v>1.036036533408948</v>
+        <v>1.047829772960369</v>
       </c>
       <c r="K5">
-        <v>1.040570453291044</v>
+        <v>1.054453554854871</v>
       </c>
       <c r="L5">
-        <v>1.003796841843145</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.03513289207847</v>
+        <v>1.05964539787914</v>
       </c>
       <c r="N5">
-        <v>1.037507824121439</v>
+        <v>1.049317811425728</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017840605950051</v>
+        <v>1.029865177530961</v>
       </c>
       <c r="D6">
-        <v>1.031296111350656</v>
+        <v>1.045296469975886</v>
       </c>
       <c r="E6">
-        <v>0.9940943985675604</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.025842456292551</v>
+        <v>1.050566804940305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05205733793513</v>
+        <v>1.054307983510118</v>
       </c>
       <c r="J6">
-        <v>1.03628116961066</v>
+        <v>1.048026205649845</v>
       </c>
       <c r="K6">
-        <v>1.04077924705548</v>
+        <v>1.054630069984333</v>
       </c>
       <c r="L6">
-        <v>1.004000212997569</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.035385198352108</v>
+        <v>1.059845374232134</v>
       </c>
       <c r="N6">
-        <v>1.037752807734619</v>
+        <v>1.049514523072154</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015582623149231</v>
+        <v>1.027960622001434</v>
       </c>
       <c r="D7">
-        <v>1.029584506975687</v>
+        <v>1.043816613378931</v>
       </c>
       <c r="E7">
-        <v>0.992407511444532</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.023825444112058</v>
+        <v>1.048925296932751</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051231067434601</v>
+        <v>1.053736233896246</v>
       </c>
       <c r="J7">
-        <v>1.034590003873908</v>
+        <v>1.046669322277028</v>
       </c>
       <c r="K7">
-        <v>1.039335631999447</v>
+        <v>1.053410644692584</v>
       </c>
       <c r="L7">
-        <v>1.002595410576665</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.033641667845397</v>
+        <v>1.058464213012211</v>
       </c>
       <c r="N7">
-        <v>1.036059240348541</v>
+        <v>1.048155712769312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005846919396721</v>
+        <v>1.019788904258445</v>
       </c>
       <c r="D8">
-        <v>1.022208610443646</v>
+        <v>1.037472016792597</v>
       </c>
       <c r="E8">
-        <v>0.985173061756735</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.015150872714281</v>
+        <v>1.04189310914168</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047638641016588</v>
+        <v>1.051259961305459</v>
       </c>
       <c r="J8">
-        <v>1.027286863858028</v>
+        <v>1.04083824126554</v>
       </c>
       <c r="K8">
-        <v>1.03309592585444</v>
+        <v>1.04816724582892</v>
       </c>
       <c r="L8">
-        <v>0.9965576909154393</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.026129453382222</v>
+        <v>1.052534007074833</v>
       </c>
       <c r="N8">
-        <v>1.028745729036157</v>
+        <v>1.042316350953952</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.98742026779706</v>
+        <v>1.004507012790217</v>
       </c>
       <c r="D9">
-        <v>1.008272680533284</v>
+        <v>1.025632052650305</v>
       </c>
       <c r="E9">
-        <v>0.971649476967969</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9988291514066509</v>
+        <v>1.028790426080732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040728494968029</v>
+        <v>1.046543410712666</v>
       </c>
       <c r="J9">
-        <v>1.013425205632122</v>
+        <v>1.029901614561303</v>
       </c>
       <c r="K9">
-        <v>1.021232950148259</v>
+        <v>1.038322518941698</v>
       </c>
       <c r="L9">
-        <v>0.9852199023756542</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>1.011941253418448</v>
+        <v>1.041433051166595</v>
       </c>
       <c r="N9">
-        <v>1.014864385665615</v>
+        <v>1.031364192985347</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9741171173040064</v>
+        <v>0.9936333567908829</v>
       </c>
       <c r="D10">
-        <v>0.9982379017493984</v>
+        <v>1.017230922286862</v>
       </c>
       <c r="E10">
-        <v>0.9620214887817545</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9871232818447402</v>
+        <v>1.019506593338906</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035669504528349</v>
+        <v>1.043132849957358</v>
       </c>
       <c r="J10">
-        <v>1.003396666439497</v>
+        <v>1.022101871694761</v>
       </c>
       <c r="K10">
-        <v>1.012639044475787</v>
+        <v>1.031295883748735</v>
       </c>
       <c r="L10">
-        <v>0.9771120700463897</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.001728987726658</v>
+        <v>1.033532361074356</v>
       </c>
       <c r="N10">
-        <v>1.004821604797048</v>
+        <v>1.02355337358929</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9680715633911633</v>
+        <v>0.9887387375613275</v>
       </c>
       <c r="D11">
-        <v>0.9936864035108234</v>
+        <v>1.01345644657099</v>
       </c>
       <c r="E11">
-        <v>0.9576835660444333</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.981825152711418</v>
+        <v>1.015338545836625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033355175847542</v>
+        <v>1.041585584937295</v>
       </c>
       <c r="J11">
-        <v>0.9988356845625099</v>
+        <v>1.018587620076542</v>
       </c>
       <c r="K11">
-        <v>1.008728375355457</v>
+        <v>1.028128978779888</v>
       </c>
       <c r="L11">
-        <v>0.9734502049493637</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9970981567637672</v>
+        <v>1.02997688302697</v>
       </c>
       <c r="N11">
-        <v>1.000254145802643</v>
+        <v>1.020034131330684</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657787868936967</v>
+        <v>0.9868904095623929</v>
       </c>
       <c r="D12">
-        <v>0.9919618079917591</v>
+        <v>1.012032339589259</v>
       </c>
       <c r="E12">
-        <v>0.9560445592980571</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9798193798593066</v>
+        <v>1.013766384512156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032475302850139</v>
+        <v>1.040999572860696</v>
       </c>
       <c r="J12">
-        <v>0.9971055390349463</v>
+        <v>1.01726014346752</v>
       </c>
       <c r="K12">
-        <v>1.00724464455011</v>
+        <v>1.026932593386036</v>
       </c>
       <c r="L12">
-        <v>0.9720652736821184</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>0.9953436977825312</v>
+        <v>1.028634510828185</v>
       </c>
       <c r="N12">
-        <v>0.99852154326998</v>
+        <v>1.018704769552613</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9662728070753484</v>
+        <v>0.9872882900949159</v>
       </c>
       <c r="D13">
-        <v>0.9923333286721236</v>
+        <v>1.012338842177222</v>
       </c>
       <c r="E13">
-        <v>0.956397426388175</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9802513947479162</v>
+        <v>1.014104732342722</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032664982716045</v>
+        <v>1.041125797373421</v>
       </c>
       <c r="J13">
-        <v>0.9974783454644982</v>
+        <v>1.017545919847375</v>
       </c>
       <c r="K13">
-        <v>1.00756436569167</v>
+        <v>1.027190153410803</v>
       </c>
       <c r="L13">
-        <v>0.9723635020107341</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9957216425576009</v>
+        <v>1.028923462674278</v>
       </c>
       <c r="N13">
-        <v>0.998894879127423</v>
+        <v>1.018990951767707</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.967883031703151</v>
+        <v>0.9885865852342333</v>
       </c>
       <c r="D14">
-        <v>0.9935445593950141</v>
+        <v>1.013339189834142</v>
       </c>
       <c r="E14">
-        <v>0.9575486650280772</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9816601472297204</v>
+        <v>1.015209089885584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033282868188758</v>
+        <v>1.041537379609838</v>
       </c>
       <c r="J14">
-        <v>0.9986934242912343</v>
+        <v>1.018478351433088</v>
       </c>
       <c r="K14">
-        <v>1.00860638160209</v>
+        <v>1.028030502810258</v>
       </c>
       <c r="L14">
-        <v>0.9733362438162891</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9969538523319792</v>
+        <v>1.029866374307445</v>
       </c>
       <c r="N14">
-        <v>1.000111683505464</v>
+        <v>1.019924707513222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9688687510028815</v>
+        <v>0.9893824275335804</v>
       </c>
       <c r="D15">
-        <v>0.9942862422230255</v>
+        <v>1.013952559413643</v>
       </c>
       <c r="E15">
-        <v>0.958254234684452</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9825230078627269</v>
+        <v>1.015886291343745</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033660834607186</v>
+        <v>1.041789450862473</v>
       </c>
       <c r="J15">
-        <v>0.9994372029883341</v>
+        <v>1.019049871829581</v>
       </c>
       <c r="K15">
-        <v>1.009244190220747</v>
+        <v>1.028545568525332</v>
       </c>
       <c r="L15">
-        <v>0.9739322365473392</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9977084079116972</v>
+        <v>1.030444408601632</v>
       </c>
       <c r="N15">
-        <v>1.000856518453627</v>
+        <v>1.020497039534233</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9745119751320728</v>
+        <v>0.9939540844902658</v>
       </c>
       <c r="D16">
-        <v>0.9985353779684079</v>
+        <v>1.017478411871879</v>
       </c>
       <c r="E16">
-        <v>0.9623056310559753</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9874697924073293</v>
+        <v>1.019779950602276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035820356963607</v>
+        <v>1.043233993894399</v>
       </c>
       <c r="J16">
-        <v>1.003694499252155</v>
+        <v>1.022332087200428</v>
       </c>
       <c r="K16">
-        <v>1.01289437139861</v>
+        <v>1.031503327109983</v>
       </c>
       <c r="L16">
-        <v>0.97735174322344</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.002031674771535</v>
+        <v>1.033765368640436</v>
       </c>
       <c r="N16">
-        <v>1.005119860566462</v>
+        <v>1.023783916027382</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9779725847866322</v>
+        <v>0.9967703738638504</v>
       </c>
       <c r="D17">
-        <v>1.001143528940676</v>
+        <v>1.019652430423256</v>
       </c>
       <c r="E17">
-        <v>0.9648001822320593</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9905091356403322</v>
+        <v>1.022181537737432</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037140749287837</v>
+        <v>1.044120778078278</v>
       </c>
       <c r="J17">
-        <v>1.006304377532571</v>
+        <v>1.024353230090214</v>
       </c>
       <c r="K17">
-        <v>1.015131537616701</v>
+        <v>1.033324437576951</v>
       </c>
       <c r="L17">
-        <v>0.9794548853121976</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.004685645971858</v>
+        <v>1.035811509651873</v>
       </c>
       <c r="N17">
-        <v>1.007733445173393</v>
+        <v>1.0258079291719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9799639052899614</v>
+        <v>0.9983952623801625</v>
       </c>
       <c r="D18">
-        <v>1.002645127333186</v>
+        <v>1.020907419494497</v>
       </c>
       <c r="E18">
-        <v>0.966239083479669</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9922600467448809</v>
+        <v>1.023568179555437</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037899093052709</v>
+        <v>1.044631276117443</v>
       </c>
       <c r="J18">
-        <v>1.007805822564999</v>
+        <v>1.025519032152536</v>
       </c>
       <c r="K18">
-        <v>1.016418358105822</v>
+        <v>1.034374765276132</v>
       </c>
       <c r="L18">
-        <v>0.9806671830414317</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.006213732846269</v>
+        <v>1.036992129079001</v>
       </c>
       <c r="N18">
-        <v>1.009237022429985</v>
+        <v>1.02697538680687</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9806384035854997</v>
+        <v>0.9989463521533783</v>
       </c>
       <c r="D19">
-        <v>1.0031538769924</v>
+        <v>1.021333164534475</v>
       </c>
       <c r="E19">
-        <v>0.9667270419358558</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.9928534442828174</v>
+        <v>1.024038635427763</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038155710142976</v>
+        <v>1.044804218275241</v>
       </c>
       <c r="J19">
-        <v>1.008314328496731</v>
+        <v>1.025914363807579</v>
       </c>
       <c r="K19">
-        <v>1.016854139136289</v>
+        <v>1.034730921741976</v>
       </c>
       <c r="L19">
-        <v>0.9810781557182242</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>1.006731474782341</v>
+        <v>1.037392551917159</v>
       </c>
       <c r="N19">
-        <v>1.009746250498466</v>
+        <v>1.027371279878208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9776041364208226</v>
+        <v>0.996470069963715</v>
       </c>
       <c r="D20">
-        <v>1.000865755976276</v>
+        <v>1.019420542377496</v>
       </c>
       <c r="E20">
-        <v>0.9645342245979291</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9901853294323202</v>
+        <v>1.021925346966708</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037000317270018</v>
+        <v>1.04402633735971</v>
       </c>
       <c r="J20">
-        <v>1.006026540639016</v>
+        <v>1.024137745939176</v>
       </c>
       <c r="K20">
-        <v>1.014893399172522</v>
+        <v>1.033130289530511</v>
       </c>
       <c r="L20">
-        <v>0.9792307445365827</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>1.004402981682885</v>
+        <v>1.035593318687352</v>
       </c>
       <c r="N20">
-        <v>1.00745521371958</v>
+        <v>1.025592139008652</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9674102012758981</v>
+        <v>0.9882051241204761</v>
       </c>
       <c r="D21">
-        <v>0.9931888456126077</v>
+        <v>1.013045235738986</v>
       </c>
       <c r="E21">
-        <v>0.9572104390583206</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9812463776943715</v>
+        <v>1.014884560287737</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033101488991489</v>
+        <v>1.041416496539521</v>
       </c>
       <c r="J21">
-        <v>0.998336635044546</v>
+        <v>1.01820439773612</v>
       </c>
       <c r="K21">
-        <v>1.008300416659899</v>
+        <v>1.027783606296518</v>
       </c>
       <c r="L21">
-        <v>0.9730504966506008</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>0.9965919718526308</v>
+        <v>1.029589322576473</v>
       </c>
       <c r="N21">
-        <v>0.9997543875771215</v>
+        <v>1.019650364770583</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9607252254571139</v>
+        <v>0.9828323061596156</v>
       </c>
       <c r="D22">
-        <v>0.9881637663293441</v>
+        <v>1.008908075794866</v>
       </c>
       <c r="E22">
-        <v>0.9524439835339882</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9754053270323131</v>
+        <v>1.010318109671765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030532121798092</v>
+        <v>1.03970986758321</v>
       </c>
       <c r="J22">
-        <v>0.9932915330446231</v>
+        <v>1.014344947464216</v>
       </c>
       <c r="K22">
-        <v>1.003973405334656</v>
+        <v>1.02430510368666</v>
       </c>
       <c r="L22">
-        <v>0.9690203050068112</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9914802778677865</v>
+        <v>1.025687897037133</v>
       </c>
       <c r="N22">
-        <v>0.9947021209536777</v>
+        <v>1.015785433636607</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9642968031531819</v>
+        <v>0.9856980749392467</v>
       </c>
       <c r="D23">
-        <v>0.9908475529399785</v>
+        <v>1.011114030815623</v>
       </c>
       <c r="E23">
-        <v>0.9549869585079535</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.978523947525104</v>
+        <v>1.012752728105704</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031905986749533</v>
+        <v>1.040621067624957</v>
       </c>
       <c r="J23">
-        <v>0.9959871320153679</v>
+        <v>1.016403700289868</v>
       </c>
       <c r="K23">
-        <v>1.006285456035682</v>
+        <v>1.026160697434525</v>
       </c>
       <c r="L23">
-        <v>0.9711712321686029</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9942102063834888</v>
+        <v>1.027768653495688</v>
       </c>
       <c r="N23">
-        <v>0.9974015479841506</v>
+        <v>1.017847110127413</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9777707060957915</v>
+        <v>0.9966058192260483</v>
       </c>
       <c r="D24">
-        <v>1.000991330257222</v>
+        <v>1.019525362907388</v>
       </c>
       <c r="E24">
-        <v>0.9646544490739059</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9903317109076724</v>
+        <v>1.022041152190609</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037063808856274</v>
+        <v>1.04406903185714</v>
       </c>
       <c r="J24">
-        <v>1.006152147379554</v>
+        <v>1.024235154308082</v>
       </c>
       <c r="K24">
-        <v>1.015001059361974</v>
+        <v>1.033218053333564</v>
       </c>
       <c r="L24">
-        <v>0.9793320685450662</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>1.00453076687562</v>
+        <v>1.035691949421643</v>
       </c>
       <c r="N24">
-        <v>1.007580998836098</v>
+        <v>1.025689685708614</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9923503180743715</v>
+        <v>1.008571287939628</v>
       </c>
       <c r="D25">
-        <v>1.011997518900433</v>
+        <v>1.02877741206272</v>
       </c>
       <c r="E25">
-        <v>0.9752462973643871</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>1.003183767772537</v>
+        <v>1.032268919990812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042589620147683</v>
+        <v>1.047807392052336</v>
       </c>
       <c r="J25">
-        <v>1.017137895805605</v>
+        <v>1.032813597555377</v>
       </c>
       <c r="K25">
-        <v>1.024412400580706</v>
+        <v>1.04094483662511</v>
       </c>
       <c r="L25">
-        <v>0.9882414348501981</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>1.015732860081962</v>
+        <v>1.04438613470348</v>
       </c>
       <c r="N25">
-        <v>1.018582348284996</v>
+        <v>1.034280311329281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -432,13 +432,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9963617723202692</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9968940712668345</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.997117960005301</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9971555583673453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9968970624462087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -572,13 +572,13 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9919494934313052</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9920921077337197</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9921799884222134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,13 +614,13 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -628,13 +628,13 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773699352</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -642,13 +642,13 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071769</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9932640239640975</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,13 +670,13 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494216</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -684,13 +684,13 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9920501090198105</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9914670000341481</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.991776070289318</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -726,13 +726,13 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9929938892766442</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9944092447426414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -432,13 +432,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474064</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952756</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -572,13 +572,13 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,13 +614,13 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -628,13 +628,13 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068049</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -642,13 +642,13 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.939383286721568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865724</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816588</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,13 +670,13 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.9380716924660142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494216</v>
+        <v>0.9532985019057446</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -684,13 +684,13 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668253</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198105</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572521</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285318</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -726,13 +726,13 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011823</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.9533716596442542</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,341 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.012670560766105</v>
+      </c>
+      <c r="D2">
+        <v>1.033017432848463</v>
+      </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
+      </c>
+      <c r="F2">
+        <v>1.038728806993773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.049435002055408</v>
+      </c>
+      <c r="J2">
+        <v>1.034478791113003</v>
+      </c>
+      <c r="K2">
+        <v>1.044035176142862</v>
+      </c>
       <c r="L2">
-        <v>0.964870170840339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9648701708403392</v>
+      </c>
+      <c r="M2">
+        <v>1.049673720471296</v>
+      </c>
+      <c r="N2">
+        <v>1.015421673282884</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047885771045612</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042206964700631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.015645307288983</v>
+      </c>
+      <c r="D3">
+        <v>1.034952353672757</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>1.040836947710966</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.050001766729749</v>
+      </c>
+      <c r="J3">
+        <v>1.035718365339532</v>
+      </c>
+      <c r="K3">
+        <v>1.04515672302668</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>1.050972672745542</v>
+      </c>
+      <c r="N3">
+        <v>1.015836074503074</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048913793571914</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042997333711733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.017541407977236</v>
+      </c>
+      <c r="D4">
+        <v>1.036189938913725</v>
+      </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
+      <c r="F4">
+        <v>1.042186755861579</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.050356293994744</v>
+      </c>
+      <c r="J4">
+        <v>1.036506802812481</v>
+      </c>
+      <c r="K4">
+        <v>1.045870355270747</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4">
+        <v>1.051801350206555</v>
+      </c>
+      <c r="N4">
+        <v>1.016099711517273</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049569628392226</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04350281813129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.018334338989074</v>
+      </c>
+      <c r="D5">
+        <v>1.036710373135933</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
+      </c>
+      <c r="F5">
+        <v>1.042753357895666</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.050504270312672</v>
+      </c>
+      <c r="J5">
+        <v>1.036837524148008</v>
+      </c>
+      <c r="K5">
+        <v>1.046171026264836</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.9715596031702912</v>
+      </c>
+      <c r="M5">
+        <v>1.052149412835347</v>
+      </c>
+      <c r="N5">
+        <v>1.016210502304278</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049845093165418</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043722549835495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.018470170499208</v>
+      </c>
+      <c r="D6">
+        <v>1.036801873719127</v>
+      </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
+      </c>
+      <c r="F6">
+        <v>1.042851338726755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.050531171895158</v>
+      </c>
+      <c r="J6">
+        <v>1.036895879195948</v>
+      </c>
+      <c r="K6">
+        <v>1.046225612998207</v>
+      </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.9717150950965046</v>
+      </c>
+      <c r="M6">
+        <v>1.052210700812788</v>
+      </c>
+      <c r="N6">
+        <v>1.01623028448882</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049893597870434</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043769847658415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.017560316229078</v>
+      </c>
+      <c r="D7">
+        <v>1.036208471041947</v>
+      </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
+      <c r="F7">
+        <v>1.042202496866037</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.050364251724193</v>
+      </c>
+      <c r="J7">
+        <v>1.036519319126555</v>
+      </c>
+      <c r="K7">
+        <v>1.045885820988968</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.9706424616290568</v>
+      </c>
+      <c r="M7">
+        <v>1.051814079985414</v>
+      </c>
+      <c r="N7">
+        <v>1.016104535385129</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049579703033916</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043533764134518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.013692261738576</v>
+      </c>
+      <c r="D8">
+        <v>1.033688664119232</v>
+      </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
+      <c r="F8">
+        <v>1.039454369228501</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.049636486000999</v>
+      </c>
+      <c r="J8">
+        <v>1.034910601201998</v>
+      </c>
+      <c r="K8">
+        <v>1.044430846798295</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8">
+        <v>1.050125165893459</v>
+      </c>
+      <c r="N8">
+        <v>1.015566838348147</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048243056130254</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042509524713276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.006635230061141</v>
+      </c>
+      <c r="D9">
+        <v>1.029116529270366</v>
+      </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
+      <c r="F9">
+        <v>1.03448618911999</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.048249773997429</v>
+      </c>
+      <c r="J9">
+        <v>1.031955837524644</v>
+      </c>
+      <c r="K9">
+        <v>1.041754236033208</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9">
+        <v>1.047043477093795</v>
+      </c>
+      <c r="N9">
+        <v>1.014578641404988</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045804127877497</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040613850396518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.001808150139328</v>
+      </c>
+      <c r="D10">
+        <v>1.026036940715183</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547283</v>
+      </c>
+      <c r="F10">
+        <v>1.03119558887593</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.047289055896362</v>
+      </c>
+      <c r="J10">
+        <v>1.029950211961701</v>
+      </c>
+      <c r="K10">
+        <v>1.0399514821598</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10">
+        <v>1.045023550215688</v>
+      </c>
+      <c r="N10">
+        <v>1.013911289674543</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044256581335847</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.0393559324551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9999970942746795</v>
+      </c>
+      <c r="D11">
+        <v>1.025059450653255</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
+      </c>
+      <c r="F11">
+        <v>1.030545638011866</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.047082796315598</v>
+      </c>
+      <c r="J11">
+        <v>1.029369994129014</v>
+      </c>
+      <c r="K11">
+        <v>1.039523765903788</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>1.04491361716119</v>
+      </c>
+      <c r="N11">
+        <v>1.013743077912916</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044602728295181</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039086189835155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9994255378016652</v>
+      </c>
+      <c r="D12">
+        <v>1.024816894615545</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>1.030580466302057</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.047079229957363</v>
+      </c>
+      <c r="J12">
+        <v>1.029254229813654</v>
+      </c>
+      <c r="K12">
+        <v>1.039483601524922</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12">
+        <v>1.045144343038584</v>
+      </c>
+      <c r="N12">
+        <v>1.013723779412127</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045109489354362</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039057792614354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9997807862091254</v>
+      </c>
+      <c r="D13">
+        <v>1.025139395630667</v>
+      </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9318723593367009</v>
+      </c>
+      <c r="F13">
+        <v>1.031166514568911</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.047243911357331</v>
+      </c>
+      <c r="J13">
+        <v>1.029501771467486</v>
+      </c>
+      <c r="K13">
+        <v>1.039757836617178</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9483836088964246</v>
+      </c>
+      <c r="M13">
+        <v>1.045677904566742</v>
+      </c>
+      <c r="N13">
+        <v>1.013823255419644</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045806425302843</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039249205056956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.000450330968935</v>
+      </c>
+      <c r="D14">
+        <v>1.025622314634446</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
+      </c>
+      <c r="F14">
+        <v>1.0318266128234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.047435511135844</v>
+      </c>
+      <c r="J14">
+        <v>1.029840014939175</v>
+      </c>
+      <c r="K14">
+        <v>1.040093041969198</v>
+      </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9490745509764514</v>
+      </c>
+      <c r="M14">
+        <v>1.046188505197037</v>
+      </c>
+      <c r="N14">
+        <v>1.013946886010341</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046382482553285</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039487620281581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.000819775159539</v>
+      </c>
+      <c r="D15">
+        <v>1.025870889206283</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737293</v>
+        <v>0.9332781050737292</v>
+      </c>
+      <c r="F15">
+        <v>1.032122219129915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.047523472861063</v>
+      </c>
+      <c r="J15">
+        <v>1.030007607528336</v>
+      </c>
+      <c r="K15">
+        <v>1.040251558727563</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9494987508782936</v>
+      </c>
+      <c r="M15">
+        <v>1.04639404972837</v>
+      </c>
+      <c r="N15">
+        <v>1.014005189152576</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04658230644785</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03960553353833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.002793524513526</v>
+      </c>
+      <c r="D16">
+        <v>1.027118164915167</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
+      </c>
+      <c r="F16">
+        <v>1.033434325214757</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.047914860012862</v>
+      </c>
+      <c r="J16">
+        <v>1.030820312672913</v>
+      </c>
+      <c r="K16">
+        <v>1.040979174216401</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9519451749175715</v>
+      </c>
+      <c r="M16">
+        <v>1.047190074189269</v>
+      </c>
+      <c r="N16">
+        <v>1.014272793097752</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047172947497797</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040123130379762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.003959398208126</v>
+      </c>
+      <c r="D17">
+        <v>1.027823717102075</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855665</v>
+        <v>0.9382760156855671</v>
+      </c>
+      <c r="F17">
+        <v>1.034091376445142</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.048112721951839</v>
+      </c>
+      <c r="J17">
+        <v>1.03126626830069</v>
+      </c>
+      <c r="K17">
+        <v>1.04136087090517</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068049</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9534603602068054</v>
+      </c>
+      <c r="M17">
+        <v>1.047526946082223</v>
+      </c>
+      <c r="N17">
+        <v>1.014413132495789</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047310811600596</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040395577944937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.004527842871962</v>
+      </c>
+      <c r="D18">
+        <v>1.028105796391567</v>
+      </c>
       <c r="E18">
-        <v>0.939383286721568</v>
+        <v>0.9393832867215685</v>
+      </c>
+      <c r="F18">
+        <v>1.03419948102858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.048150157716745</v>
+      </c>
+      <c r="J18">
+        <v>1.031420878371064</v>
+      </c>
+      <c r="K18">
+        <v>1.041456403386592</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865727</v>
+      </c>
+      <c r="M18">
+        <v>1.047452891083366</v>
+      </c>
+      <c r="N18">
+        <v>1.014450196198278</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047015875410219</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040451550142301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.004559778497472</v>
+      </c>
+      <c r="D19">
+        <v>1.028013311470215</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.939759481468009</v>
+      </c>
+      <c r="F19">
+        <v>1.033810472538226</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.048048287540519</v>
+      </c>
+      <c r="J19">
+        <v>1.031317995941921</v>
+      </c>
+      <c r="K19">
+        <v>1.041303357046264</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.954635249381271</v>
+      </c>
+      <c r="M19">
+        <v>1.047008487964701</v>
+      </c>
+      <c r="N19">
+        <v>1.014397759977347</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046340980873482</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040349702898182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.003078162009671</v>
+      </c>
+      <c r="D20">
+        <v>1.026861472757769</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660142</v>
+        <v>0.9380716924660139</v>
+      </c>
+      <c r="F20">
+        <v>1.032068353643734</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.047555896713422</v>
+      </c>
+      <c r="J20">
+        <v>1.030490939193526</v>
+      </c>
+      <c r="K20">
+        <v>1.04044788636255</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9532985019057443</v>
+      </c>
+      <c r="M20">
+        <v>1.045569821266936</v>
+      </c>
+      <c r="N20">
+        <v>1.014093137748415</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044678418069403</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039748755516263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.99940363787567</v>
+      </c>
+      <c r="D21">
+        <v>1.024490314679235</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>1.029462583424685</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.046780224349363</v>
+      </c>
+      <c r="J21">
+        <v>1.028926313922172</v>
+      </c>
+      <c r="K21">
+        <v>1.039022104730969</v>
+      </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9488714019981066</v>
+      </c>
+      <c r="M21">
+        <v>1.043906480289994</v>
+      </c>
+      <c r="N21">
+        <v>1.013567880703965</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043321419124497</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03874388663536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.997066637678467</v>
+      </c>
+      <c r="D22">
+        <v>1.022992634766201</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651167</v>
+        <v>0.9288972953651161</v>
+      </c>
+      <c r="F22">
+        <v>1.027847364957684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.046286026029484</v>
+      </c>
+      <c r="J22">
+        <v>1.027936120967148</v>
+      </c>
+      <c r="K22">
+        <v>1.038121961510051</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572517</v>
+      </c>
+      <c r="M22">
+        <v>1.042886634857342</v>
+      </c>
+      <c r="N22">
+        <v>1.013236196701706</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042514282538676</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038094014134471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9983015412281117</v>
+      </c>
+      <c r="D23">
+        <v>1.023778091161656</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963314</v>
+      </c>
+      <c r="F23">
+        <v>1.028698053902674</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.046544008167104</v>
+      </c>
+      <c r="J23">
+        <v>1.028455375896441</v>
+      </c>
+      <c r="K23">
+        <v>1.038590514798488</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>1.043421495842615</v>
+      </c>
+      <c r="N23">
+        <v>1.013409457145206</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.0429375878452</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038415714925186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.003095714152571</v>
+      </c>
+      <c r="D24">
+        <v>1.026847703178723</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011823</v>
+        <v>0.9381640424011825</v>
+      </c>
+      <c r="F24">
+        <v>1.032020140348319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.047537931156614</v>
+      </c>
+      <c r="J24">
+        <v>1.030475115674857</v>
+      </c>
+      <c r="K24">
+        <v>1.040419195100393</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.953371659644254</v>
+      </c>
+      <c r="M24">
+        <v>1.04550734957984</v>
+      </c>
+      <c r="N24">
+        <v>1.014084623248276</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044588393797863</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039701206307275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.008500882994678</v>
+      </c>
+      <c r="D25">
+        <v>1.030330454733901</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
+      </c>
+      <c r="F25">
+        <v>1.035797181082474</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.048629069417359</v>
+      </c>
+      <c r="J25">
+        <v>1.032745506651038</v>
+      </c>
+      <c r="K25">
+        <v>1.04247549244749</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
+      </c>
+      <c r="M25">
+        <v>1.047864092321534</v>
+      </c>
+      <c r="N25">
+        <v>1.014843762385212</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046453584789467</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041152254841128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012670560766105</v>
+        <v>1.012003964992681</v>
       </c>
       <c r="D2">
-        <v>1.033017432848463</v>
+        <v>1.031786100253011</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.038728806993773</v>
+        <v>1.037904135327191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049435002055408</v>
+        <v>1.048891601997412</v>
       </c>
       <c r="J2">
-        <v>1.034478791113003</v>
+        <v>1.033831472986114</v>
       </c>
       <c r="K2">
-        <v>1.044035176142862</v>
+        <v>1.042819677275937</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.049673720471296</v>
+        <v>1.048859502961072</v>
       </c>
       <c r="N2">
-        <v>1.015421673282884</v>
+        <v>1.016192531207337</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047885771045612</v>
+        <v>1.04724137871238</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042206964700631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041356242711443</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023436380940467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015645307288983</v>
+        <v>1.014893499310929</v>
       </c>
       <c r="D3">
-        <v>1.034952353672757</v>
+        <v>1.033607568870878</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.040836947710966</v>
+        <v>1.039932156290488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050001766729749</v>
+        <v>1.049400942951035</v>
       </c>
       <c r="J3">
-        <v>1.035718365339532</v>
+        <v>1.034986225594657</v>
       </c>
       <c r="K3">
-        <v>1.04515672302668</v>
+        <v>1.043827761097025</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.050972672745542</v>
+        <v>1.050078373323098</v>
       </c>
       <c r="N3">
-        <v>1.015836074503074</v>
+        <v>1.016499130726855</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048913793571914</v>
+        <v>1.048206023339515</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042997333711733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042066111599116</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02360800500677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017541407977236</v>
+        <v>1.01673572325582</v>
       </c>
       <c r="D4">
-        <v>1.036189938913725</v>
+        <v>1.034773103435371</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.042186755861579</v>
+        <v>1.041231163001835</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050356293994744</v>
+        <v>1.0497189720857</v>
       </c>
       <c r="J4">
-        <v>1.036506802812481</v>
+        <v>1.035720804136168</v>
       </c>
       <c r="K4">
-        <v>1.045870355270747</v>
+        <v>1.044469208203343</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.051801350206555</v>
+        <v>1.050856183737948</v>
       </c>
       <c r="N4">
-        <v>1.016099711517273</v>
+        <v>1.016694235000204</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049569628392226</v>
+        <v>1.048821601386918</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04350281813129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04252063958572</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023714993216984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018334338989074</v>
+        <v>1.017506230766116</v>
       </c>
       <c r="D5">
-        <v>1.036710373135933</v>
+        <v>1.035263521365066</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.042753357895666</v>
+        <v>1.041776612585047</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050504270312672</v>
+        <v>1.049851726114142</v>
       </c>
       <c r="J5">
-        <v>1.036837524148008</v>
+        <v>1.036029059496389</v>
       </c>
       <c r="K5">
-        <v>1.046171026264836</v>
+        <v>1.044739778206611</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.052149412835347</v>
+        <v>1.05118304656207</v>
       </c>
       <c r="N5">
-        <v>1.016210502304278</v>
+        <v>1.016776274894936</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049845093165418</v>
+        <v>1.049080288409813</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043722549835495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042719798521005</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02376004543701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018470170499208</v>
+        <v>1.017638234664693</v>
       </c>
       <c r="D6">
-        <v>1.036801873719127</v>
+        <v>1.035349947063174</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.042851338726755</v>
+        <v>1.041871009550238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050531171895158</v>
+        <v>1.049876040802266</v>
       </c>
       <c r="J6">
-        <v>1.036895879195948</v>
+        <v>1.036083578633185</v>
       </c>
       <c r="K6">
-        <v>1.046225612998207</v>
+        <v>1.044789274631746</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.052210700812788</v>
+        <v>1.051240741998769</v>
       </c>
       <c r="N6">
-        <v>1.01623028448882</v>
+        <v>1.016790969431024</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049893597870434</v>
+        <v>1.049125949943024</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043769847658415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04276436495207</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023768816693411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017560316229078</v>
+        <v>1.016760728612129</v>
       </c>
       <c r="D7">
-        <v>1.036208471041947</v>
+        <v>1.034795639986438</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.042202496866037</v>
+        <v>1.041250335754447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050364251724193</v>
+        <v>1.04972969674506</v>
       </c>
       <c r="J7">
-        <v>1.036519319126555</v>
+        <v>1.035739260326377</v>
       </c>
       <c r="K7">
-        <v>1.045885820988968</v>
+        <v>1.044488628032751</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.051814079985414</v>
+        <v>1.050872303940913</v>
       </c>
       <c r="N7">
-        <v>1.016104535385129</v>
+        <v>1.016725330889104</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049579703033916</v>
+        <v>1.048834359301541</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043533764134518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042556377848102</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023720327664442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013692261738576</v>
+        <v>1.013016618641864</v>
       </c>
       <c r="D8">
-        <v>1.033688664119232</v>
+        <v>1.03243250879392</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.039454369228501</v>
+        <v>1.038614051039354</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049636486000999</v>
+        <v>1.049082859991302</v>
       </c>
       <c r="J8">
-        <v>1.034910601201998</v>
+        <v>1.034253858349541</v>
       </c>
       <c r="K8">
-        <v>1.044430846798295</v>
+        <v>1.043190375949804</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.050125165893459</v>
+        <v>1.049295190402615</v>
       </c>
       <c r="N8">
-        <v>1.015566838348147</v>
+        <v>1.016383355012681</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048243056130254</v>
+        <v>1.047586192844175</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042509524713276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041643411292641</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023503562038596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006635230061141</v>
+        <v>1.006167350882883</v>
       </c>
       <c r="D9">
-        <v>1.029116529270366</v>
+        <v>1.028132963869955</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.03448618911999</v>
+        <v>1.03383919155555</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048249773997429</v>
+        <v>1.047834301388005</v>
       </c>
       <c r="J9">
-        <v>1.031955837524644</v>
+        <v>1.031504188168778</v>
       </c>
       <c r="K9">
-        <v>1.041754236033208</v>
+        <v>1.04078551695424</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.047043477093795</v>
+        <v>1.046406113005397</v>
       </c>
       <c r="N9">
-        <v>1.014578641404988</v>
+        <v>1.015662445407502</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045804127877497</v>
+        <v>1.045299700438662</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040613850396518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039939593564212</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023080349396865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001808150139328</v>
+        <v>1.00151181657785</v>
       </c>
       <c r="D10">
-        <v>1.026036940715183</v>
+        <v>1.025258622834182</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.03119558887593</v>
+        <v>1.03069737224736</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047289055896362</v>
+        <v>1.046980532097319</v>
       </c>
       <c r="J10">
-        <v>1.029950211961701</v>
+        <v>1.029665580512658</v>
       </c>
       <c r="K10">
-        <v>1.0399514821598</v>
+        <v>1.039186324780649</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.045023550215688</v>
+        <v>1.044533646684159</v>
       </c>
       <c r="N10">
-        <v>1.013911289674543</v>
+        <v>1.015292693318847</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044256581335847</v>
+        <v>1.043868881288263</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0393559324551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03882727602155</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022795506521475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9999970942746795</v>
+        <v>0.9997910403158966</v>
       </c>
       <c r="D11">
-        <v>1.025059450653255</v>
+        <v>1.024365761511739</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.030545638011866</v>
+        <v>1.030112746981841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047082796315598</v>
+        <v>1.046821320587844</v>
       </c>
       <c r="J11">
-        <v>1.029369994129014</v>
+        <v>1.02917251483987</v>
       </c>
       <c r="K11">
-        <v>1.039523765903788</v>
+        <v>1.038842353101207</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.04491361716119</v>
+        <v>1.044488279298756</v>
       </c>
       <c r="N11">
-        <v>1.013743077912916</v>
+        <v>1.015406315545656</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044602728295181</v>
+        <v>1.044266291300184</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039086189835155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038619953856739</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022775524719045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9994255378016652</v>
+        <v>0.9992453880226877</v>
       </c>
       <c r="D12">
-        <v>1.024816894615545</v>
+        <v>1.024143442343409</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.030580466302057</v>
+        <v>1.030164044339145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047079229957363</v>
+        <v>1.046828913373204</v>
       </c>
       <c r="J12">
-        <v>1.029254229813654</v>
+        <v>1.029081718753845</v>
       </c>
       <c r="K12">
-        <v>1.039483601524922</v>
+        <v>1.038822262730903</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.045144343038584</v>
+        <v>1.044735300593994</v>
       </c>
       <c r="N12">
-        <v>1.013723779412127</v>
+        <v>1.0154963334403</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045109489354362</v>
+        <v>1.044786049953422</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039057792614354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038605749740074</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022800178877026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9997807862091254</v>
+        <v>0.9995690456996463</v>
       </c>
       <c r="D13">
-        <v>1.025139395630667</v>
+        <v>1.024431197410068</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.031166514568911</v>
+        <v>1.030724429380682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047243911357331</v>
+        <v>1.046973624370094</v>
       </c>
       <c r="J13">
-        <v>1.029501771467486</v>
+        <v>1.029298967688901</v>
       </c>
       <c r="K13">
-        <v>1.039757836617178</v>
+        <v>1.039062324527776</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.045677904566742</v>
+        <v>1.045243616328357</v>
       </c>
       <c r="N13">
-        <v>1.013823255419644</v>
+        <v>1.015542984588531</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045806425302843</v>
+        <v>1.045463108832501</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R13">
-        <v>1.039249205056956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03877275518757</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022865617292004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000450330968935</v>
+        <v>1.000190992287145</v>
       </c>
       <c r="D14">
-        <v>1.025622314634446</v>
+        <v>1.024865418786994</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.0318266128234</v>
+        <v>1.031347927583841</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047435511135844</v>
+        <v>1.047137586131821</v>
       </c>
       <c r="J14">
-        <v>1.029840014939175</v>
+        <v>1.029591470619482</v>
       </c>
       <c r="K14">
-        <v>1.040093041969198</v>
+        <v>1.039349540475119</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.046188505197037</v>
+        <v>1.045718156629859</v>
       </c>
       <c r="N14">
-        <v>1.013946886010341</v>
+        <v>1.015557358642775</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046382482553285</v>
+        <v>1.046010709235762</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039487620281581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038977375248478</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022930301929897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000819775159539</v>
+        <v>1.000536663995539</v>
       </c>
       <c r="D15">
-        <v>1.025870889206283</v>
+        <v>1.025090231480031</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.032122219129915</v>
+        <v>1.031625576030345</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047523472861063</v>
+        <v>1.04721218332023</v>
       </c>
       <c r="J15">
-        <v>1.030007607528336</v>
+        <v>1.02973618028722</v>
       </c>
       <c r="K15">
-        <v>1.040251558727563</v>
+        <v>1.03948461350675</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.04639404972837</v>
+        <v>1.045905991044936</v>
       </c>
       <c r="N15">
-        <v>1.014005189152576</v>
+        <v>1.015556031505336</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04658230644785</v>
+        <v>1.046196544795079</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03960553353833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039079282119892</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022957497202595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002793524513526</v>
+        <v>1.002400102407299</v>
       </c>
       <c r="D16">
-        <v>1.027118164915167</v>
+        <v>1.026227049417988</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.033434325214757</v>
+        <v>1.032854287418929</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047914860012862</v>
+        <v>1.047542499995241</v>
       </c>
       <c r="J16">
-        <v>1.030820312672913</v>
+        <v>1.030442336045038</v>
       </c>
       <c r="K16">
-        <v>1.040979174216401</v>
+        <v>1.040103043879608</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.047190074189269</v>
+        <v>1.046619633758225</v>
       </c>
       <c r="N16">
-        <v>1.014272793097752</v>
+        <v>1.015535937693429</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047172947497797</v>
+        <v>1.046722058671777</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040123130379762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039519983176667</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023064969126226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003959398208126</v>
+        <v>1.003513583068694</v>
       </c>
       <c r="D17">
-        <v>1.027823717102075</v>
+        <v>1.026878314355598</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.034091376445142</v>
+        <v>1.0334706926876</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048112721951839</v>
+        <v>1.047711092053827</v>
       </c>
       <c r="J17">
-        <v>1.03126626830069</v>
+        <v>1.030837405855707</v>
       </c>
       <c r="K17">
-        <v>1.04136087090517</v>
+        <v>1.040430929298512</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.047526946082223</v>
+        <v>1.046916251631067</v>
       </c>
       <c r="N17">
-        <v>1.014413132495789</v>
+        <v>1.015541386861118</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047310811600596</v>
+        <v>1.046828057481783</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040395577944937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03975463314268</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023113886083113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004527842871962</v>
+        <v>1.004066464383131</v>
       </c>
       <c r="D18">
-        <v>1.028105796391567</v>
+        <v>1.027144492118019</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.03419948102858</v>
+        <v>1.033566760215683</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048150157716745</v>
+        <v>1.047740523736308</v>
       </c>
       <c r="J18">
-        <v>1.031420878371064</v>
+        <v>1.030976720976094</v>
       </c>
       <c r="K18">
-        <v>1.041456403386592</v>
+        <v>1.0405105674724</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.047452891083366</v>
+        <v>1.046830194146378</v>
       </c>
       <c r="N18">
-        <v>1.014450196198278</v>
+        <v>1.015527400209667</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047015875410219</v>
+        <v>1.046523531768175</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040451550142301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039798234063368</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023108773062105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004559778497472</v>
+        <v>1.004111084564695</v>
       </c>
       <c r="D19">
-        <v>1.028013311470215</v>
+        <v>1.027067598614897</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.033810472538226</v>
+        <v>1.033188786453692</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048048287540519</v>
+        <v>1.047647690240304</v>
       </c>
       <c r="J19">
-        <v>1.031317995941921</v>
+        <v>1.030885950036554</v>
       </c>
       <c r="K19">
-        <v>1.041303357046264</v>
+        <v>1.040372783813749</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.047008487964701</v>
+        <v>1.046396607880637</v>
       </c>
       <c r="N19">
-        <v>1.014397759977347</v>
+        <v>1.015479094811534</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046340980873482</v>
+        <v>1.045857033473655</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040349702898182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039707802603037</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023057522406697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003078162009671</v>
+        <v>1.002718097880888</v>
       </c>
       <c r="D20">
-        <v>1.026861472757769</v>
+        <v>1.026016551335938</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.032068353643734</v>
+        <v>1.031520235599196</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047555896713422</v>
+        <v>1.047210608224906</v>
       </c>
       <c r="J20">
-        <v>1.030490939193526</v>
+        <v>1.030144642019417</v>
       </c>
       <c r="K20">
-        <v>1.04044788636255</v>
+        <v>1.039616853717907</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.045569821266936</v>
+        <v>1.045030593450537</v>
       </c>
       <c r="N20">
-        <v>1.014093137748415</v>
+        <v>1.015323222216471</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044678418069403</v>
+        <v>1.044251678600905</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039748755516263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039177622573747</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022875172618285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.99940363787567</v>
+        <v>0.9992678062997761</v>
       </c>
       <c r="D21">
-        <v>1.024490314679235</v>
+        <v>1.023868483033445</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.029462583424685</v>
+        <v>1.029083774197848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046780224349363</v>
+        <v>1.046560882746685</v>
       </c>
       <c r="J21">
-        <v>1.028926313922172</v>
+        <v>1.028796172160387</v>
       </c>
       <c r="K21">
-        <v>1.039022104730969</v>
+        <v>1.038411342960542</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.043906480289994</v>
+        <v>1.043534328411478</v>
       </c>
       <c r="N21">
-        <v>1.013567880703965</v>
+        <v>1.015377388556868</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043321419124497</v>
+        <v>1.043026886952114</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03874388663536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038328816252078</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022655969412891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.997066637678467</v>
+        <v>0.9970713703339426</v>
       </c>
       <c r="D22">
-        <v>1.022992634766201</v>
+        <v>1.022510727132514</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.027847364957684</v>
+        <v>1.027574906669031</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046286026029484</v>
+        <v>1.046145621659519</v>
       </c>
       <c r="J22">
-        <v>1.027936120967148</v>
+        <v>1.027940644150166</v>
       </c>
       <c r="K22">
-        <v>1.038121961510051</v>
+        <v>1.037649054319721</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.042886634857342</v>
+        <v>1.04261920138604</v>
       </c>
       <c r="N22">
-        <v>1.013236196701706</v>
+        <v>1.015405114071964</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042514282538676</v>
+        <v>1.042302627435488</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038094014134471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037775109947749</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02251624257706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9983015412281117</v>
+        <v>0.9982213233826033</v>
       </c>
       <c r="D23">
-        <v>1.023778091161656</v>
+        <v>1.023214663782447</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.028698053902674</v>
+        <v>1.028363016490575</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046544008167104</v>
+        <v>1.046356844721164</v>
       </c>
       <c r="J23">
-        <v>1.028455375896441</v>
+        <v>1.028378607230202</v>
       </c>
       <c r="K23">
-        <v>1.038590514798488</v>
+        <v>1.038037348552624</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.043421495842615</v>
+        <v>1.043092482758518</v>
       </c>
       <c r="N23">
-        <v>1.013409457145206</v>
+        <v>1.015346630303481</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0429375878452</v>
+        <v>1.042677196878882</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038415714925186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038039123963204</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022585508766513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003095714152571</v>
+        <v>1.002736485107618</v>
       </c>
       <c r="D24">
-        <v>1.026847703178723</v>
+        <v>1.026003867844149</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.032020140348319</v>
+        <v>1.031472783238347</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047537931156614</v>
+        <v>1.047193369916209</v>
       </c>
       <c r="J24">
-        <v>1.030475115674857</v>
+        <v>1.030129601686448</v>
       </c>
       <c r="K24">
-        <v>1.040419195100393</v>
+        <v>1.039589213400755</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.04550734957984</v>
+        <v>1.044968860069505</v>
       </c>
       <c r="N24">
-        <v>1.014084623248276</v>
+        <v>1.015312951289209</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044588393797863</v>
+        <v>1.044162217730308</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039701206307275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039128145737026</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022864461010175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008500882994678</v>
+        <v>1.007969548494317</v>
       </c>
       <c r="D25">
-        <v>1.030330454733901</v>
+        <v>1.029269199831316</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.035797181082474</v>
+        <v>1.03509420645786</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048629069417359</v>
+        <v>1.048173242962726</v>
       </c>
       <c r="J25">
-        <v>1.032745506651038</v>
+        <v>1.032231650318292</v>
       </c>
       <c r="K25">
-        <v>1.04247549244749</v>
+        <v>1.041429526094978</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.047864092321534</v>
+        <v>1.047171105612256</v>
       </c>
       <c r="N25">
-        <v>1.014843762385212</v>
+        <v>1.015823783066536</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046453584789467</v>
+        <v>1.045905136549505</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041152254841128</v>
+        <v>1.040426183489001</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023197205574415</v>
       </c>
     </row>
   </sheetData>
